--- a/columns_recoded_demographics/english_in_germany_cleaned.csv.xlsx
+++ b/columns_recoded_demographics/english_in_germany_cleaned.csv.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="300" yWindow="1600" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="english_in_germany_cleaned.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">english_in_germany_cleaned.csv!$CB$1:$CB$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">english_in_germany_cleaned.csv!$BZ$1:$BZ$99</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK7" authorId="0">
+    <comment ref="CL7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5811" uniqueCount="684">
   <si>
     <t>Resp.ID</t>
   </si>
@@ -2160,6 +2160,15 @@
   </si>
   <si>
     <t>other.degree.richi</t>
+  </si>
+  <si>
+    <t>other.year.studyL2.reduced</t>
+  </si>
+  <si>
+    <t>SECONDARY</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
   </si>
 </sst>
 </file>
@@ -2227,8 +2236,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -2243,9 +2256,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2549,6 +2566,118 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="12700000" cy="5905500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="5461000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2906,23 +3035,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DH99"/>
+  <dimension ref="A1:DI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CE37" sqref="CE37"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="BZ1" sqref="BZ1:BZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="46" max="46" width="100" customWidth="1"/>
     <col min="47" max="47" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22" customWidth="1"/>
-    <col min="83" max="83" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="29" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="21.1640625" customWidth="1"/>
+    <col min="79" max="79" width="71.1640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="22" customWidth="1"/>
+    <col min="84" max="84" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" ht="15.75" customHeight="1">
+    <row r="1" spans="1:113" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3161,106 +3292,109 @@
         <v>75</v>
       </c>
       <c r="CB1" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="CC1" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:112" ht="15.75" customHeight="1">
+    <row r="2" spans="1:113" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>5201306668</v>
       </c>
@@ -3493,42 +3627,42 @@
         <v>119</v>
       </c>
       <c r="CB2" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC2" s="2">
-        <v>0</v>
-      </c>
       <c r="CD2" s="2">
         <v>0</v>
       </c>
       <c r="CE2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF2" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL2" s="4"/>
       <c r="CM2" s="2">
         <v>0</v>
       </c>
       <c r="CN2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP2" s="2">
         <v>0</v>
@@ -3566,18 +3700,18 @@
       <c r="DA2" s="2">
         <v>0</v>
       </c>
-      <c r="DB2" s="2" t="s">
-        <v>112</v>
+      <c r="DB2" s="2">
+        <v>0</v>
       </c>
       <c r="DC2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DD2" s="2" t="s">
+      <c r="DE2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE2" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF2" s="2" t="s">
         <v>112</v>
       </c>
@@ -3585,10 +3719,13 @@
         <v>112</v>
       </c>
       <c r="DH2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI2" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:112" ht="15.75" customHeight="1">
+    <row r="3" spans="1:113" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>5201108060</v>
       </c>
@@ -3821,11 +3958,9 @@
         <v>112</v>
       </c>
       <c r="CB3" s="4"/>
-      <c r="CC3" s="2">
-        <v>1</v>
-      </c>
+      <c r="CC3" s="4"/>
       <c r="CD3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE3" s="2">
         <v>0</v>
@@ -3833,30 +3968,30 @@
       <c r="CF3" s="2">
         <v>0</v>
       </c>
-      <c r="CG3" s="2" t="s">
+      <c r="CG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="CH3" s="4" t="s">
+      <c r="CI3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="CI3" s="2" t="s">
+      <c r="CJ3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL3" s="4"/>
       <c r="CM3" s="2">
         <v>0</v>
       </c>
       <c r="CN3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP3" s="2">
         <v>0</v>
@@ -3889,23 +4024,23 @@
         <v>0</v>
       </c>
       <c r="CZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="DB3" s="2" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="DB3" s="2">
+        <v>0</v>
       </c>
       <c r="DC3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="DD3" s="2" t="s">
+      <c r="DE3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE3" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF3" s="2" t="s">
         <v>112</v>
       </c>
@@ -3913,10 +4048,13 @@
         <v>112</v>
       </c>
       <c r="DH3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:112" ht="15.75" customHeight="1">
+    <row r="4" spans="1:113" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>5200940285</v>
       </c>
@@ -4149,9 +4287,7 @@
         <v>112</v>
       </c>
       <c r="CB4" s="4"/>
-      <c r="CC4" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC4" s="4"/>
       <c r="CD4" s="2">
         <v>0</v>
       </c>
@@ -4161,20 +4297,20 @@
       <c r="CF4" s="2">
         <v>0</v>
       </c>
-      <c r="CG4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH4" s="4"/>
-      <c r="CI4" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="CG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI4" s="4"/>
       <c r="CJ4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL4" s="4"/>
       <c r="CM4" s="2">
         <v>0</v>
       </c>
@@ -4220,8 +4356,8 @@
       <c r="DA4" s="2">
         <v>0</v>
       </c>
-      <c r="DB4" s="2" t="s">
-        <v>112</v>
+      <c r="DB4" s="2">
+        <v>0</v>
       </c>
       <c r="DC4" s="2" t="s">
         <v>112</v>
@@ -4239,10 +4375,13 @@
         <v>112</v>
       </c>
       <c r="DH4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI4" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:112" ht="15.75" customHeight="1">
+    <row r="5" spans="1:113" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>5186895119</v>
       </c>
@@ -4475,11 +4614,11 @@
         <v>141</v>
       </c>
       <c r="CB5" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC5" s="2">
-        <v>0</v>
-      </c>
       <c r="CD5" s="2">
         <v>0</v>
       </c>
@@ -4489,28 +4628,28 @@
       <c r="CF5" s="2">
         <v>0</v>
       </c>
-      <c r="CG5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH5" s="4"/>
-      <c r="CI5" s="2" t="s">
+      <c r="CG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL5" s="4"/>
       <c r="CM5" s="2">
         <v>0</v>
       </c>
       <c r="CN5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP5" s="2">
         <v>0</v>
@@ -4548,18 +4687,18 @@
       <c r="DA5" s="2">
         <v>0</v>
       </c>
-      <c r="DB5" s="2" t="s">
-        <v>112</v>
+      <c r="DB5" s="2">
+        <v>0</v>
       </c>
       <c r="DC5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD5" s="2" t="s">
+      <c r="DE5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE5" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF5" s="2" t="s">
         <v>112</v>
       </c>
@@ -4567,10 +4706,13 @@
         <v>112</v>
       </c>
       <c r="DH5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI5" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:112" ht="15.75" customHeight="1">
+    <row r="6" spans="1:113" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>5186887474</v>
       </c>
@@ -4805,11 +4947,11 @@
         <v>150</v>
       </c>
       <c r="CB6" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC6" s="2">
-        <v>0</v>
-      </c>
       <c r="CD6" s="2">
         <v>0</v>
       </c>
@@ -4819,22 +4961,22 @@
       <c r="CF6" s="2">
         <v>0</v>
       </c>
-      <c r="CG6" s="2" t="s">
+      <c r="CG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="CH6" s="4" t="s">
+      <c r="CI6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CI6" s="2" t="s">
+      <c r="CJ6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK6" s="4"/>
-      <c r="CL6" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL6" s="4"/>
       <c r="CM6" s="2">
         <v>0</v>
       </c>
@@ -4860,10 +5002,10 @@
         <v>0</v>
       </c>
       <c r="CU6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW6" s="2">
         <v>0</v>
@@ -4880,18 +5022,18 @@
       <c r="DA6" s="2">
         <v>0</v>
       </c>
-      <c r="DB6" s="2" t="s">
-        <v>112</v>
+      <c r="DB6" s="2">
+        <v>0</v>
       </c>
       <c r="DC6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD6" s="2" t="s">
+      <c r="DE6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE6" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF6" s="2" t="s">
         <v>112</v>
       </c>
@@ -4899,10 +5041,13 @@
         <v>112</v>
       </c>
       <c r="DH6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI6" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:112" ht="15.75" customHeight="1">
+    <row r="7" spans="1:113" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>5186879340</v>
       </c>
@@ -5137,34 +5282,32 @@
         <v>112</v>
       </c>
       <c r="CB7" s="4"/>
-      <c r="CC7" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC7" s="4"/>
       <c r="CD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF7" s="2">
         <v>0</v>
       </c>
-      <c r="CG7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH7" s="4"/>
-      <c r="CI7" s="2" t="s">
+      <c r="CG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ7" s="2" t="s">
+      <c r="CK7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="CK7" s="4" t="s">
+      <c r="CL7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL7" s="2">
-        <v>0</v>
-      </c>
       <c r="CM7" s="2">
         <v>0</v>
       </c>
@@ -5210,29 +5353,32 @@
       <c r="DA7" s="2">
         <v>0</v>
       </c>
-      <c r="DB7" s="2" t="s">
+      <c r="DB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="DC7" s="2" t="s">
+      <c r="DD7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD7" s="2" t="s">
+      <c r="DE7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF7" s="2">
-        <v>0</v>
+      <c r="DF7" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG7" s="2">
         <v>0</v>
       </c>
-      <c r="DH7" s="2" t="s">
+      <c r="DH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:112" ht="15.75" customHeight="1">
+    <row r="8" spans="1:113" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>5186867348</v>
       </c>
@@ -5467,36 +5613,36 @@
         <v>167</v>
       </c>
       <c r="CB8" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC8" s="2">
-        <v>0</v>
-      </c>
       <c r="CD8" s="2">
         <v>0</v>
       </c>
       <c r="CE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH8" s="4"/>
-      <c r="CI8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI8" s="4"/>
+      <c r="CJ8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ8" s="2" t="s">
+      <c r="CK8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="CK8" s="4" t="s">
+      <c r="CL8" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL8" s="2">
-        <v>0</v>
-      </c>
       <c r="CM8" s="2">
         <v>0</v>
       </c>
@@ -5525,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="CV8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX8" s="2">
         <v>0</v>
@@ -5542,18 +5688,18 @@
       <c r="DA8" s="2">
         <v>0</v>
       </c>
-      <c r="DB8" s="2" t="s">
+      <c r="DB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="DC8" s="2" t="s">
+      <c r="DD8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD8" s="2" t="s">
+      <c r="DE8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE8" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF8" s="2" t="s">
         <v>112</v>
       </c>
@@ -5561,10 +5707,13 @@
         <v>112</v>
       </c>
       <c r="DH8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI8" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:112" ht="15.75" customHeight="1">
+    <row r="9" spans="1:113" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>5186851988</v>
       </c>
@@ -5801,11 +5950,11 @@
         <v>176</v>
       </c>
       <c r="CB9" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC9" s="2">
-        <v>0</v>
-      </c>
       <c r="CD9" s="2">
         <v>0</v>
       </c>
@@ -5815,24 +5964,24 @@
       <c r="CF9" s="2">
         <v>0</v>
       </c>
-      <c r="CG9" s="2" t="s">
+      <c r="CG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="CH9" s="4" t="s">
+      <c r="CI9" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="CI9" s="2" t="s">
+      <c r="CJ9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ9" s="2" t="s">
+      <c r="CK9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="CK9" s="4" t="s">
+      <c r="CL9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL9" s="2">
-        <v>0</v>
-      </c>
       <c r="CM9" s="2">
         <v>0</v>
       </c>
@@ -5878,18 +6027,18 @@
       <c r="DA9" s="2">
         <v>0</v>
       </c>
-      <c r="DB9" s="2" t="s">
+      <c r="DB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="DC9" s="2" t="s">
+      <c r="DD9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD9" s="2" t="s">
+      <c r="DE9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE9" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF9" s="2" t="s">
         <v>112</v>
       </c>
@@ -5897,10 +6046,13 @@
         <v>112</v>
       </c>
       <c r="DH9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI9" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:112" ht="15.75" customHeight="1">
+    <row r="10" spans="1:113" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>5186844398</v>
       </c>
@@ -6133,11 +6285,11 @@
         <v>185</v>
       </c>
       <c r="CB10" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC10" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC10" s="2">
-        <v>0</v>
-      </c>
       <c r="CD10" s="2">
         <v>0</v>
       </c>
@@ -6147,20 +6299,20 @@
       <c r="CF10" s="2">
         <v>0</v>
       </c>
-      <c r="CG10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH10" s="4"/>
-      <c r="CI10" s="2" t="s">
+      <c r="CG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI10" s="4"/>
+      <c r="CJ10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK10" s="4"/>
-      <c r="CL10" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL10" s="4"/>
       <c r="CM10" s="2">
         <v>0</v>
       </c>
@@ -6174,10 +6326,10 @@
         <v>0</v>
       </c>
       <c r="CQ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS10" s="2">
         <v>0</v>
@@ -6206,18 +6358,18 @@
       <c r="DA10" s="2">
         <v>0</v>
       </c>
-      <c r="DB10" s="2" t="s">
-        <v>112</v>
+      <c r="DB10" s="2">
+        <v>0</v>
       </c>
       <c r="DC10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD10" s="2" t="s">
+      <c r="DE10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE10" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF10" s="2" t="s">
         <v>112</v>
       </c>
@@ -6225,10 +6377,13 @@
         <v>112</v>
       </c>
       <c r="DH10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI10" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:112" ht="15.75" customHeight="1">
+    <row r="11" spans="1:113" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>5186586330</v>
       </c>
@@ -6465,11 +6620,11 @@
         <v>194</v>
       </c>
       <c r="CB11" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC11" s="2">
-        <v>0</v>
-      </c>
       <c r="CD11" s="2">
         <v>0</v>
       </c>
@@ -6479,28 +6634,28 @@
       <c r="CF11" s="2">
         <v>0</v>
       </c>
-      <c r="CG11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH11" s="4"/>
-      <c r="CI11" s="2" t="s">
+      <c r="CG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI11" s="4"/>
+      <c r="CJ11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK11" s="4"/>
-      <c r="CL11" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL11" s="4"/>
       <c r="CM11" s="2">
         <v>0</v>
       </c>
       <c r="CN11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP11" s="2">
         <v>0</v>
@@ -6538,18 +6693,18 @@
       <c r="DA11" s="2">
         <v>0</v>
       </c>
-      <c r="DB11" s="2" t="s">
-        <v>112</v>
+      <c r="DB11" s="2">
+        <v>0</v>
       </c>
       <c r="DC11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD11" s="2" t="s">
+      <c r="DE11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE11" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF11" s="2" t="s">
         <v>112</v>
       </c>
@@ -6557,10 +6712,13 @@
         <v>112</v>
       </c>
       <c r="DH11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI11" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:112" ht="15.75" customHeight="1">
+    <row r="12" spans="1:113" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>5186579663</v>
       </c>
@@ -6797,9 +6955,7 @@
         <v>112</v>
       </c>
       <c r="CB12" s="4"/>
-      <c r="CC12" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC12" s="4"/>
       <c r="CD12" s="2">
         <v>0</v>
       </c>
@@ -6809,24 +6965,24 @@
       <c r="CF12" s="2">
         <v>0</v>
       </c>
-      <c r="CG12" s="2" t="s">
+      <c r="CG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="CH12" s="4" t="s">
+      <c r="CI12" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CI12" s="2" t="s">
+      <c r="CJ12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ12" s="2" t="s">
+      <c r="CK12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CK12" s="4" t="s">
+      <c r="CL12" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL12" s="2">
-        <v>0</v>
-      </c>
       <c r="CM12" s="2">
         <v>0</v>
       </c>
@@ -6872,18 +7028,18 @@
       <c r="DA12" s="2">
         <v>0</v>
       </c>
-      <c r="DB12" s="2" t="s">
+      <c r="DB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="DC12" s="2" t="s">
+      <c r="DD12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="DD12" s="2" t="s">
+      <c r="DE12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE12" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF12" s="2" t="s">
         <v>112</v>
       </c>
@@ -6891,10 +7047,13 @@
         <v>112</v>
       </c>
       <c r="DH12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI12" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:112" ht="15.75" customHeight="1">
+    <row r="13" spans="1:113" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>5186574628</v>
       </c>
@@ -7131,11 +7290,11 @@
         <v>212</v>
       </c>
       <c r="CB13" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC13" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="CC13" s="2">
-        <v>0</v>
-      </c>
       <c r="CD13" s="2">
         <v>0</v>
       </c>
@@ -7145,22 +7304,22 @@
       <c r="CF13" s="2">
         <v>0</v>
       </c>
-      <c r="CG13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH13" s="4"/>
-      <c r="CI13" s="2" t="s">
+      <c r="CG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI13" s="4"/>
+      <c r="CJ13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ13" s="2" t="s">
+      <c r="CK13" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="CK13" s="4" t="s">
+      <c r="CL13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL13" s="2">
-        <v>0</v>
-      </c>
       <c r="CM13" s="2">
         <v>0</v>
       </c>
@@ -7206,18 +7365,18 @@
       <c r="DA13" s="2">
         <v>0</v>
       </c>
-      <c r="DB13" s="2" t="s">
-        <v>112</v>
+      <c r="DB13" s="2">
+        <v>0</v>
       </c>
       <c r="DC13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD13" s="2" t="s">
+      <c r="DE13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE13" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF13" s="2" t="s">
         <v>112</v>
       </c>
@@ -7225,10 +7384,13 @@
         <v>112</v>
       </c>
       <c r="DH13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI13" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:112" ht="15.75" customHeight="1">
+    <row r="14" spans="1:113" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>5186569508</v>
       </c>
@@ -7463,11 +7625,11 @@
         <v>141</v>
       </c>
       <c r="CB14" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC14" s="2">
-        <v>0</v>
-      </c>
       <c r="CD14" s="2">
         <v>0</v>
       </c>
@@ -7477,28 +7639,28 @@
       <c r="CF14" s="2">
         <v>0</v>
       </c>
-      <c r="CG14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH14" s="4"/>
-      <c r="CI14" s="2" t="s">
+      <c r="CG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI14" s="4"/>
+      <c r="CJ14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK14" s="4"/>
-      <c r="CL14" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL14" s="4"/>
       <c r="CM14" s="2">
         <v>0</v>
       </c>
       <c r="CN14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP14" s="2">
         <v>0</v>
@@ -7536,18 +7698,18 @@
       <c r="DA14" s="2">
         <v>0</v>
       </c>
-      <c r="DB14" s="2" t="s">
-        <v>112</v>
+      <c r="DB14" s="2">
+        <v>0</v>
       </c>
       <c r="DC14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD14" s="2" t="s">
+      <c r="DE14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE14" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF14" s="2" t="s">
         <v>112</v>
       </c>
@@ -7555,10 +7717,13 @@
         <v>112</v>
       </c>
       <c r="DH14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI14" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:112" ht="15.75" customHeight="1">
+    <row r="15" spans="1:113" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>5186508717</v>
       </c>
@@ -7793,11 +7958,11 @@
         <v>225</v>
       </c>
       <c r="CB15" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC15" s="2">
-        <v>0</v>
-      </c>
       <c r="CD15" s="2">
         <v>0</v>
       </c>
@@ -7807,24 +7972,24 @@
       <c r="CF15" s="2">
         <v>0</v>
       </c>
-      <c r="CG15" s="2" t="s">
+      <c r="CG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="CH15" s="4" t="s">
+      <c r="CI15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CI15" s="2" t="s">
+      <c r="CJ15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ15" s="2" t="s">
+      <c r="CK15" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="CK15" s="4" t="s">
+      <c r="CL15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL15" s="2">
-        <v>0</v>
-      </c>
       <c r="CM15" s="2">
         <v>0</v>
       </c>
@@ -7838,10 +8003,10 @@
         <v>0</v>
       </c>
       <c r="CQ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS15" s="2">
         <v>0</v>
@@ -7870,29 +8035,32 @@
       <c r="DA15" s="2">
         <v>0</v>
       </c>
-      <c r="DB15" s="2" t="s">
-        <v>112</v>
+      <c r="DB15" s="2">
+        <v>0</v>
       </c>
       <c r="DC15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="DD15" s="2" t="s">
+      <c r="DE15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF15" s="2">
-        <v>0</v>
+      <c r="DF15" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG15" s="2">
         <v>0</v>
       </c>
-      <c r="DH15" s="2" t="s">
+      <c r="DH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI15" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:112" ht="15.75" customHeight="1">
+    <row r="16" spans="1:113" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>5186504871</v>
       </c>
@@ -8125,34 +8293,34 @@
         <v>167</v>
       </c>
       <c r="CB16" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC16" s="2">
-        <v>0</v>
-      </c>
       <c r="CD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF16" s="2">
         <v>0</v>
       </c>
-      <c r="CG16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH16" s="4"/>
-      <c r="CI16" s="2" t="s">
+      <c r="CG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK16" s="4"/>
-      <c r="CL16" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL16" s="4"/>
       <c r="CM16" s="2">
         <v>0</v>
       </c>
@@ -8187,10 +8355,10 @@
         <v>0</v>
       </c>
       <c r="CX16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ16" s="2">
         <v>0</v>
@@ -8198,29 +8366,32 @@
       <c r="DA16" s="2">
         <v>0</v>
       </c>
-      <c r="DB16" s="2" t="s">
-        <v>112</v>
+      <c r="DB16" s="2">
+        <v>0</v>
       </c>
       <c r="DC16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD16" s="2" t="s">
+      <c r="DE16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF16" s="2">
-        <v>0</v>
+      <c r="DF16" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG16" s="2">
         <v>0</v>
       </c>
-      <c r="DH16" s="2" t="s">
+      <c r="DH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI16" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:112" ht="15.75" customHeight="1">
+    <row r="17" spans="1:113" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>5186501237</v>
       </c>
@@ -8453,11 +8624,11 @@
         <v>141</v>
       </c>
       <c r="CB17" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC17" s="2">
-        <v>0</v>
-      </c>
       <c r="CD17" s="2">
         <v>0</v>
       </c>
@@ -8467,24 +8638,24 @@
       <c r="CF17" s="2">
         <v>0</v>
       </c>
-      <c r="CG17" s="2" t="s">
+      <c r="CG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="CH17" s="4" t="s">
+      <c r="CI17" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="CI17" s="2" t="s">
+      <c r="CJ17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ17" s="2" t="s">
+      <c r="CK17" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="CK17" s="4" t="s">
+      <c r="CL17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL17" s="2">
-        <v>0</v>
-      </c>
       <c r="CM17" s="2">
         <v>0</v>
       </c>
@@ -8530,18 +8701,18 @@
       <c r="DA17" s="2">
         <v>0</v>
       </c>
-      <c r="DB17" s="2" t="s">
-        <v>112</v>
+      <c r="DB17" s="2">
+        <v>0</v>
       </c>
       <c r="DC17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD17" s="2" t="s">
+      <c r="DE17" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="DE17" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF17" s="2" t="s">
         <v>112</v>
       </c>
@@ -8549,10 +8720,13 @@
         <v>112</v>
       </c>
       <c r="DH17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI17" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:112" ht="15.75" customHeight="1">
+    <row r="18" spans="1:113" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>5186497076</v>
       </c>
@@ -8785,11 +8959,11 @@
         <v>243</v>
       </c>
       <c r="CB18" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC18" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC18" s="2">
-        <v>0</v>
-      </c>
       <c r="CD18" s="2">
         <v>0</v>
       </c>
@@ -8799,24 +8973,24 @@
       <c r="CF18" s="2">
         <v>0</v>
       </c>
-      <c r="CG18" s="2" t="s">
+      <c r="CG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH18" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="CH18" s="4" t="s">
+      <c r="CI18" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CI18" s="2" t="s">
+      <c r="CJ18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ18" s="2" t="s">
+      <c r="CK18" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="CK18" s="4" t="s">
+      <c r="CL18" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL18" s="2">
-        <v>0</v>
-      </c>
       <c r="CM18" s="2">
         <v>0</v>
       </c>
@@ -8862,18 +9036,18 @@
       <c r="DA18" s="2">
         <v>0</v>
       </c>
-      <c r="DB18" s="2" t="s">
-        <v>112</v>
+      <c r="DB18" s="2">
+        <v>0</v>
       </c>
       <c r="DC18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD18" s="2" t="s">
+      <c r="DE18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE18" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF18" s="2" t="s">
         <v>112</v>
       </c>
@@ -8881,10 +9055,13 @@
         <v>112</v>
       </c>
       <c r="DH18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI18" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:112" ht="15.75" customHeight="1">
+    <row r="19" spans="1:113" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>5186493777</v>
       </c>
@@ -9117,34 +9294,34 @@
         <v>167</v>
       </c>
       <c r="CB19" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC19" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC19" s="2">
-        <v>0</v>
-      </c>
       <c r="CD19" s="2">
         <v>0</v>
       </c>
       <c r="CE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF19" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH19" s="4"/>
-      <c r="CI19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI19" s="4"/>
+      <c r="CJ19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK19" s="4"/>
-      <c r="CL19" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL19" s="4"/>
       <c r="CM19" s="2">
         <v>0</v>
       </c>
@@ -9152,10 +9329,10 @@
         <v>0</v>
       </c>
       <c r="CO19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ19" s="2">
         <v>0</v>
@@ -9190,18 +9367,18 @@
       <c r="DA19" s="2">
         <v>0</v>
       </c>
-      <c r="DB19" s="2" t="s">
-        <v>112</v>
+      <c r="DB19" s="2">
+        <v>0</v>
       </c>
       <c r="DC19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD19" s="2" t="s">
+      <c r="DE19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE19" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF19" s="2" t="s">
         <v>112</v>
       </c>
@@ -9209,10 +9386,13 @@
         <v>112</v>
       </c>
       <c r="DH19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI19" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:112" ht="15.75" customHeight="1">
+    <row r="20" spans="1:113" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>5186489712</v>
       </c>
@@ -9445,9 +9625,7 @@
         <v>112</v>
       </c>
       <c r="CB20" s="4"/>
-      <c r="CC20" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC20" s="4"/>
       <c r="CD20" s="2">
         <v>0</v>
       </c>
@@ -9457,24 +9635,24 @@
       <c r="CF20" s="2">
         <v>0</v>
       </c>
-      <c r="CG20" s="2" t="s">
+      <c r="CG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH20" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="CH20" s="4" t="s">
+      <c r="CI20" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="CI20" s="2" t="s">
+      <c r="CJ20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ20" s="2" t="s">
+      <c r="CK20" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="CK20" s="4" t="s">
+      <c r="CL20" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL20" s="2">
-        <v>0</v>
-      </c>
       <c r="CM20" s="2">
         <v>0</v>
       </c>
@@ -9520,29 +9698,32 @@
       <c r="DA20" s="2">
         <v>0</v>
       </c>
-      <c r="DB20" s="2" t="s">
+      <c r="DB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC20" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="DC20" s="2" t="s">
+      <c r="DD20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD20" s="2" t="s">
+      <c r="DE20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF20" s="2">
-        <v>0</v>
+      <c r="DF20" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG20" s="2">
         <v>0</v>
       </c>
-      <c r="DH20" s="2" t="s">
+      <c r="DH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI20" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:112" ht="15.75" customHeight="1">
+    <row r="21" spans="1:113" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>5186485427</v>
       </c>
@@ -9777,11 +9958,11 @@
         <v>260</v>
       </c>
       <c r="CB21" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC21" s="2">
-        <v>0</v>
-      </c>
       <c r="CD21" s="2">
         <v>0</v>
       </c>
@@ -9791,20 +9972,20 @@
       <c r="CF21" s="2">
         <v>0</v>
       </c>
-      <c r="CG21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH21" s="4"/>
-      <c r="CI21" s="2" t="s">
+      <c r="CG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI21" s="4"/>
+      <c r="CJ21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ21" s="2" t="s">
+      <c r="CK21" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="CK21" s="4"/>
-      <c r="CL21" s="2">
-        <v>0</v>
-      </c>
+      <c r="CL21" s="4"/>
       <c r="CM21" s="2">
         <v>0</v>
       </c>
@@ -9833,10 +10014,10 @@
         <v>0</v>
       </c>
       <c r="CV21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX21" s="2">
         <v>0</v>
@@ -9850,18 +10031,18 @@
       <c r="DA21" s="2">
         <v>0</v>
       </c>
-      <c r="DB21" s="2" t="s">
-        <v>112</v>
+      <c r="DB21" s="2">
+        <v>0</v>
       </c>
       <c r="DC21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD21" s="2" t="s">
+      <c r="DE21" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE21" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF21" s="2" t="s">
         <v>112</v>
       </c>
@@ -9869,10 +10050,13 @@
         <v>112</v>
       </c>
       <c r="DH21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI21" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:112" ht="15.75" customHeight="1">
+    <row r="22" spans="1:113" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>5186474525</v>
       </c>
@@ -10105,34 +10289,32 @@
         <v>112</v>
       </c>
       <c r="CB22" s="4"/>
-      <c r="CC22" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC22" s="4"/>
       <c r="CD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF22" s="2">
         <v>0</v>
       </c>
-      <c r="CG22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH22" s="4"/>
-      <c r="CI22" s="2" t="s">
+      <c r="CG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI22" s="4"/>
+      <c r="CJ22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ22" s="2" t="s">
+      <c r="CK22" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="CK22" s="4" t="s">
+      <c r="CL22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL22" s="2">
-        <v>0</v>
-      </c>
       <c r="CM22" s="2">
         <v>0</v>
       </c>
@@ -10178,29 +10360,32 @@
       <c r="DA22" s="2">
         <v>0</v>
       </c>
-      <c r="DB22" s="2" t="s">
-        <v>112</v>
+      <c r="DB22" s="2">
+        <v>0</v>
       </c>
       <c r="DC22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD22" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD22" s="2" t="s">
+      <c r="DE22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF22" s="2">
-        <v>0</v>
+      <c r="DF22" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG22" s="2">
         <v>0</v>
       </c>
-      <c r="DH22" s="2" t="s">
+      <c r="DH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI22" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:112" ht="15.75" customHeight="1">
+    <row r="23" spans="1:113" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>5186470197</v>
       </c>
@@ -10433,11 +10618,11 @@
         <v>194</v>
       </c>
       <c r="CB23" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC23" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC23" s="2">
-        <v>0</v>
-      </c>
       <c r="CD23" s="2">
         <v>0</v>
       </c>
@@ -10447,22 +10632,22 @@
       <c r="CF23" s="2">
         <v>0</v>
       </c>
-      <c r="CG23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH23" s="4"/>
-      <c r="CI23" s="2" t="s">
+      <c r="CG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI23" s="4"/>
+      <c r="CJ23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ23" s="2" t="s">
+      <c r="CK23" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="CK23" s="4" t="s">
+      <c r="CL23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL23" s="2">
-        <v>0</v>
-      </c>
       <c r="CM23" s="2">
         <v>0</v>
       </c>
@@ -10508,29 +10693,32 @@
       <c r="DA23" s="2">
         <v>0</v>
       </c>
-      <c r="DB23" s="2" t="s">
-        <v>112</v>
+      <c r="DB23" s="2">
+        <v>0</v>
       </c>
       <c r="DC23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD23" s="2" t="s">
+      <c r="DE23" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF23" s="2">
-        <v>0</v>
+      <c r="DF23" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG23" s="2">
         <v>0</v>
       </c>
-      <c r="DH23" s="2" t="s">
+      <c r="DH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI23" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:112" ht="15.75" customHeight="1">
+    <row r="24" spans="1:113" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>5186466741</v>
       </c>
@@ -10763,9 +10951,7 @@
         <v>112</v>
       </c>
       <c r="CB24" s="4"/>
-      <c r="CC24" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC24" s="4"/>
       <c r="CD24" s="2">
         <v>0</v>
       </c>
@@ -10775,22 +10961,22 @@
       <c r="CF24" s="2">
         <v>0</v>
       </c>
-      <c r="CG24" s="2" t="s">
+      <c r="CG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH24" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="CH24" s="4" t="s">
+      <c r="CI24" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="CI24" s="2" t="s">
+      <c r="CJ24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK24" s="4"/>
-      <c r="CL24" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL24" s="4"/>
       <c r="CM24" s="2">
         <v>0</v>
       </c>
@@ -10801,10 +10987,10 @@
         <v>0</v>
       </c>
       <c r="CP24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR24" s="2">
         <v>0</v>
@@ -10836,18 +11022,18 @@
       <c r="DA24" s="2">
         <v>0</v>
       </c>
-      <c r="DB24" s="2" t="s">
-        <v>112</v>
+      <c r="DB24" s="2">
+        <v>0</v>
       </c>
       <c r="DC24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD24" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="DD24" s="2" t="s">
+      <c r="DE24" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE24" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF24" s="2" t="s">
         <v>112</v>
       </c>
@@ -10855,10 +11041,13 @@
         <v>112</v>
       </c>
       <c r="DH24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI24" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:112" ht="15.75" customHeight="1">
+    <row r="25" spans="1:113" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>5185792718</v>
       </c>
@@ -11095,8 +11284,8 @@
       <c r="CB25" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="CC25" s="2">
-        <v>0</v>
+      <c r="CC25" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="CD25" s="2">
         <v>0</v>
@@ -11107,28 +11296,28 @@
       <c r="CF25" s="2">
         <v>0</v>
       </c>
-      <c r="CG25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH25" s="4"/>
-      <c r="CI25" s="2" t="s">
+      <c r="CG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI25" s="4"/>
+      <c r="CJ25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK25" s="4"/>
-      <c r="CL25" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL25" s="4"/>
       <c r="CM25" s="2">
         <v>0</v>
       </c>
       <c r="CN25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP25" s="2">
         <v>0</v>
@@ -11166,18 +11355,18 @@
       <c r="DA25" s="2">
         <v>0</v>
       </c>
-      <c r="DB25" s="2" t="s">
-        <v>112</v>
+      <c r="DB25" s="2">
+        <v>0</v>
       </c>
       <c r="DC25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD25" s="2" t="s">
+      <c r="DE25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE25" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF25" s="2" t="s">
         <v>112</v>
       </c>
@@ -11185,10 +11374,13 @@
         <v>112</v>
       </c>
       <c r="DH25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI25" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:112" ht="15.75" customHeight="1">
+    <row r="26" spans="1:113" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>5185779890</v>
       </c>
@@ -11421,11 +11613,11 @@
         <v>167</v>
       </c>
       <c r="CB26" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC26" s="2">
-        <v>0</v>
-      </c>
       <c r="CD26" s="2">
         <v>0</v>
       </c>
@@ -11435,28 +11627,28 @@
       <c r="CF26" s="2">
         <v>0</v>
       </c>
-      <c r="CG26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH26" s="4"/>
-      <c r="CI26" s="2" t="s">
+      <c r="CG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI26" s="4"/>
+      <c r="CJ26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK26" s="4"/>
-      <c r="CL26" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL26" s="4"/>
       <c r="CM26" s="2">
         <v>0</v>
       </c>
       <c r="CN26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP26" s="2">
         <v>0</v>
@@ -11494,29 +11686,32 @@
       <c r="DA26" s="2">
         <v>0</v>
       </c>
-      <c r="DB26" s="2" t="s">
-        <v>112</v>
+      <c r="DB26" s="2">
+        <v>0</v>
       </c>
       <c r="DC26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD26" s="2" t="s">
+      <c r="DE26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF26" s="2">
-        <v>0</v>
+      <c r="DF26" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG26" s="2">
         <v>0</v>
       </c>
-      <c r="DH26" s="2" t="s">
+      <c r="DH26" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI26" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:112" ht="15.75" customHeight="1">
+    <row r="27" spans="1:113" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>5185771791</v>
       </c>
@@ -11751,9 +11946,7 @@
         <v>112</v>
       </c>
       <c r="CB27" s="4"/>
-      <c r="CC27" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC27" s="4"/>
       <c r="CD27" s="2">
         <v>0</v>
       </c>
@@ -11763,30 +11956,30 @@
       <c r="CF27" s="2">
         <v>0</v>
       </c>
-      <c r="CG27" s="2" t="s">
+      <c r="CG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH27" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="CH27" s="4" t="s">
+      <c r="CI27" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="CI27" s="2" t="s">
+      <c r="CJ27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK27" s="4"/>
-      <c r="CL27" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL27" s="4"/>
       <c r="CM27" s="2">
         <v>0</v>
       </c>
       <c r="CN27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP27" s="2">
         <v>0</v>
@@ -11824,18 +12017,18 @@
       <c r="DA27" s="2">
         <v>0</v>
       </c>
-      <c r="DB27" s="2" t="s">
-        <v>112</v>
+      <c r="DB27" s="2">
+        <v>0</v>
       </c>
       <c r="DC27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD27" s="2" t="s">
+      <c r="DE27" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE27" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF27" s="2" t="s">
         <v>112</v>
       </c>
@@ -11843,10 +12036,13 @@
         <v>112</v>
       </c>
       <c r="DH27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI27" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:112" ht="15.75" customHeight="1">
+    <row r="28" spans="1:113" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>5185760719</v>
       </c>
@@ -12083,8 +12279,8 @@
       <c r="CB28" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="CC28" s="2">
-        <v>0</v>
+      <c r="CC28" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="CD28" s="2">
         <v>0</v>
@@ -12095,20 +12291,20 @@
       <c r="CF28" s="2">
         <v>0</v>
       </c>
-      <c r="CG28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH28" s="4"/>
-      <c r="CI28" s="2" t="s">
+      <c r="CG28" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI28" s="4"/>
+      <c r="CJ28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK28" s="4"/>
-      <c r="CL28" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL28" s="4"/>
       <c r="CM28" s="2">
         <v>0</v>
       </c>
@@ -12116,10 +12312,10 @@
         <v>0</v>
       </c>
       <c r="CO28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ28" s="2">
         <v>0</v>
@@ -12154,18 +12350,18 @@
       <c r="DA28" s="2">
         <v>0</v>
       </c>
-      <c r="DB28" s="2" t="s">
-        <v>112</v>
+      <c r="DB28" s="2">
+        <v>0</v>
       </c>
       <c r="DC28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD28" s="2" t="s">
+      <c r="DE28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE28" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF28" s="2" t="s">
         <v>112</v>
       </c>
@@ -12173,10 +12369,13 @@
         <v>112</v>
       </c>
       <c r="DH28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI28" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:112" ht="15.75" customHeight="1">
+    <row r="29" spans="1:113" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>5185746304</v>
       </c>
@@ -12411,9 +12610,7 @@
         <v>112</v>
       </c>
       <c r="CB29" s="4"/>
-      <c r="CC29" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC29" s="4"/>
       <c r="CD29" s="2">
         <v>0</v>
       </c>
@@ -12423,24 +12620,24 @@
       <c r="CF29" s="2">
         <v>0</v>
       </c>
-      <c r="CG29" s="2" t="s">
+      <c r="CG29" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH29" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="CH29" s="4" t="s">
+      <c r="CI29" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="CI29" s="2" t="s">
+      <c r="CJ29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ29" s="2" t="s">
+      <c r="CK29" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="CK29" s="4" t="s">
+      <c r="CL29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL29" s="2">
-        <v>0</v>
-      </c>
       <c r="CM29" s="2">
         <v>0</v>
       </c>
@@ -12448,10 +12645,10 @@
         <v>0</v>
       </c>
       <c r="CO29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ29" s="2">
         <v>0</v>
@@ -12486,18 +12683,18 @@
       <c r="DA29" s="2">
         <v>0</v>
       </c>
-      <c r="DB29" s="2" t="s">
+      <c r="DB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC29" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="DC29" s="2" t="s">
+      <c r="DD29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD29" s="2" t="s">
+      <c r="DE29" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="DE29" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF29" s="2" t="s">
         <v>112</v>
       </c>
@@ -12505,10 +12702,13 @@
         <v>112</v>
       </c>
       <c r="DH29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI29" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:112" ht="15.75" customHeight="1">
+    <row r="30" spans="1:113" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>5185737784</v>
       </c>
@@ -12745,9 +12945,7 @@
         <v>112</v>
       </c>
       <c r="CB30" s="4"/>
-      <c r="CC30" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC30" s="4"/>
       <c r="CD30" s="2">
         <v>0</v>
       </c>
@@ -12757,24 +12955,24 @@
       <c r="CF30" s="2">
         <v>0</v>
       </c>
-      <c r="CG30" s="2" t="s">
+      <c r="CG30" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH30" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="CH30" s="4" t="s">
+      <c r="CI30" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CI30" s="2" t="s">
+      <c r="CJ30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ30" s="2" t="s">
+      <c r="CK30" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CK30" s="4" t="s">
+      <c r="CL30" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL30" s="2">
-        <v>0</v>
-      </c>
       <c r="CM30" s="2">
         <v>0</v>
       </c>
@@ -12820,18 +13018,18 @@
       <c r="DA30" s="2">
         <v>0</v>
       </c>
-      <c r="DB30" s="2" t="s">
+      <c r="DB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC30" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="DC30" s="2" t="s">
+      <c r="DD30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD30" s="2" t="s">
+      <c r="DE30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE30" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF30" s="2" t="s">
         <v>112</v>
       </c>
@@ -12839,10 +13037,13 @@
         <v>112</v>
       </c>
       <c r="DH30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI30" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:112" ht="15.75" customHeight="1">
+    <row r="31" spans="1:113" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>5185601316</v>
       </c>
@@ -13079,9 +13280,7 @@
         <v>112</v>
       </c>
       <c r="CB31" s="4"/>
-      <c r="CC31" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC31" s="4"/>
       <c r="CD31" s="2">
         <v>0</v>
       </c>
@@ -13091,22 +13290,22 @@
       <c r="CF31" s="2">
         <v>0</v>
       </c>
-      <c r="CG31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH31" s="4"/>
-      <c r="CI31" s="2" t="s">
+      <c r="CG31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI31" s="4"/>
+      <c r="CJ31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ31" s="2" t="s">
+      <c r="CK31" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CK31" s="4" t="s">
+      <c r="CL31" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL31" s="2">
-        <v>0</v>
-      </c>
       <c r="CM31" s="2">
         <v>0</v>
       </c>
@@ -13152,18 +13351,18 @@
       <c r="DA31" s="2">
         <v>0</v>
       </c>
-      <c r="DB31" s="2" t="s">
+      <c r="DB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC31" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="DC31" s="2" t="s">
+      <c r="DD31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD31" s="2" t="s">
+      <c r="DE31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE31" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF31" s="2" t="s">
         <v>112</v>
       </c>
@@ -13171,10 +13370,13 @@
         <v>112</v>
       </c>
       <c r="DH31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI31" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:112" ht="15.75" customHeight="1">
+    <row r="32" spans="1:113" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>5185408081</v>
       </c>
@@ -13409,9 +13611,7 @@
         <v>112</v>
       </c>
       <c r="CB32" s="4"/>
-      <c r="CC32" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC32" s="4"/>
       <c r="CD32" s="2">
         <v>0</v>
       </c>
@@ -13421,20 +13621,20 @@
       <c r="CF32" s="2">
         <v>0</v>
       </c>
-      <c r="CG32" s="2"/>
-      <c r="CH32" s="4"/>
-      <c r="CI32" s="2" t="s">
+      <c r="CG32" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH32" s="2"/>
+      <c r="CI32" s="4"/>
+      <c r="CJ32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ32" s="2" t="s">
+      <c r="CK32" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="CK32" s="4" t="s">
+      <c r="CL32" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL32" s="2">
-        <v>0</v>
-      </c>
       <c r="CM32" s="2">
         <v>0</v>
       </c>
@@ -13469,10 +13669,10 @@
         <v>0</v>
       </c>
       <c r="CX32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ32" s="2">
         <v>0</v>
@@ -13480,29 +13680,32 @@
       <c r="DA32" s="2">
         <v>0</v>
       </c>
-      <c r="DB32" s="2" t="s">
-        <v>112</v>
+      <c r="DB32" s="2">
+        <v>0</v>
       </c>
       <c r="DC32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD32" s="2" t="s">
+      <c r="DE32" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF32" s="2">
-        <v>0</v>
+      <c r="DF32" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG32" s="2">
         <v>0</v>
       </c>
-      <c r="DH32" s="2" t="s">
+      <c r="DH32" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI32" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:112" ht="15.75" customHeight="1">
+    <row r="33" spans="1:113" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>5185397337</v>
       </c>
@@ -13735,11 +13938,11 @@
         <v>194</v>
       </c>
       <c r="CB33" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC33" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC33" s="2">
-        <v>0</v>
-      </c>
       <c r="CD33" s="2">
         <v>0</v>
       </c>
@@ -13749,20 +13952,20 @@
       <c r="CF33" s="2">
         <v>0</v>
       </c>
-      <c r="CG33" s="2"/>
-      <c r="CH33" s="4"/>
-      <c r="CI33" s="2" t="s">
+      <c r="CG33" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH33" s="2"/>
+      <c r="CI33" s="4"/>
+      <c r="CJ33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ33" s="2" t="s">
+      <c r="CK33" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="CK33" s="4" t="s">
+      <c r="CL33" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL33" s="2">
-        <v>0</v>
-      </c>
       <c r="CM33" s="2">
         <v>0</v>
       </c>
@@ -13808,29 +14011,32 @@
       <c r="DA33" s="2">
         <v>0</v>
       </c>
-      <c r="DB33" s="2" t="s">
+      <c r="DB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC33" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="DC33" s="2" t="s">
+      <c r="DD33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD33" s="2" t="s">
+      <c r="DE33" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF33" s="2">
-        <v>0</v>
+      <c r="DF33" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG33" s="2">
         <v>0</v>
       </c>
-      <c r="DH33" s="2" t="s">
+      <c r="DH33" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI33" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:112" ht="15.75" customHeight="1">
+    <row r="34" spans="1:113" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>5185389169</v>
       </c>
@@ -14063,9 +14269,7 @@
         <v>112</v>
       </c>
       <c r="CB34" s="4"/>
-      <c r="CC34" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC34" s="4"/>
       <c r="CD34" s="2">
         <v>0</v>
       </c>
@@ -14075,22 +14279,22 @@
       <c r="CF34" s="2">
         <v>0</v>
       </c>
-      <c r="CG34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH34" s="4"/>
-      <c r="CI34" s="2" t="s">
+      <c r="CG34" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI34" s="4"/>
+      <c r="CJ34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ34" s="2" t="s">
+      <c r="CK34" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="CK34" s="4" t="s">
+      <c r="CL34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL34" s="2">
-        <v>0</v>
-      </c>
       <c r="CM34" s="2">
         <v>0</v>
       </c>
@@ -14104,10 +14308,10 @@
         <v>0</v>
       </c>
       <c r="CQ34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS34" s="2">
         <v>0</v>
@@ -14136,29 +14340,32 @@
       <c r="DA34" s="2">
         <v>0</v>
       </c>
-      <c r="DB34" s="2" t="s">
-        <v>112</v>
+      <c r="DB34" s="2">
+        <v>0</v>
       </c>
       <c r="DC34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD34" s="2" t="s">
+      <c r="DE34" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE34" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF34" s="2">
-        <v>0</v>
+      <c r="DF34" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG34" s="2">
         <v>0</v>
       </c>
-      <c r="DH34" s="2" t="s">
+      <c r="DH34" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI34" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:112" ht="15.75" customHeight="1">
+    <row r="35" spans="1:113" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>5185378300</v>
       </c>
@@ -14391,13 +14598,13 @@
         <v>342</v>
       </c>
       <c r="CB35" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC35" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC35" s="2">
-        <v>1</v>
-      </c>
       <c r="CD35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE35" s="2">
         <v>0</v>
@@ -14405,22 +14612,22 @@
       <c r="CF35" s="2">
         <v>0</v>
       </c>
-      <c r="CG35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH35" s="4"/>
-      <c r="CI35" s="2" t="s">
+      <c r="CG35" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI35" s="4"/>
+      <c r="CJ35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ35" s="2" t="s">
+      <c r="CK35" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="CK35" s="4" t="s">
+      <c r="CL35" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL35" s="2">
-        <v>0</v>
-      </c>
       <c r="CM35" s="2">
         <v>0</v>
       </c>
@@ -14428,10 +14635,10 @@
         <v>0</v>
       </c>
       <c r="CO35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ35" s="2">
         <v>0</v>
@@ -14466,18 +14673,18 @@
       <c r="DA35" s="2">
         <v>0</v>
       </c>
-      <c r="DB35" s="2" t="s">
-        <v>112</v>
+      <c r="DB35" s="2">
+        <v>0</v>
       </c>
       <c r="DC35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD35" s="2" t="s">
+      <c r="DE35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE35" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF35" s="2" t="s">
         <v>112</v>
       </c>
@@ -14485,10 +14692,13 @@
         <v>112</v>
       </c>
       <c r="DH35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI35" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:112" ht="15.75" customHeight="1">
+    <row r="36" spans="1:113" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>5184931383</v>
       </c>
@@ -14723,9 +14933,7 @@
         <v>112</v>
       </c>
       <c r="CB36" s="4"/>
-      <c r="CC36" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC36" s="4"/>
       <c r="CD36" s="2">
         <v>0</v>
       </c>
@@ -14735,22 +14943,22 @@
       <c r="CF36" s="2">
         <v>0</v>
       </c>
-      <c r="CG36" s="2" t="s">
+      <c r="CG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH36" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="CH36" s="4" t="s">
+      <c r="CI36" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CI36" s="2" t="s">
+      <c r="CJ36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK36" s="4"/>
-      <c r="CL36" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL36" s="4"/>
       <c r="CM36" s="2">
         <v>0</v>
       </c>
@@ -14796,29 +15004,32 @@
       <c r="DA36" s="2">
         <v>0</v>
       </c>
-      <c r="DB36" s="2" t="s">
+      <c r="DB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC36" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="DC36" s="2" t="s">
+      <c r="DD36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD36" s="2" t="s">
+      <c r="DE36" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="DE36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF36" s="2">
-        <v>0</v>
+      <c r="DF36" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG36" s="2">
         <v>0</v>
       </c>
-      <c r="DH36" s="2" t="s">
+      <c r="DH36" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI36" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:112" ht="15.75" customHeight="1">
+    <row r="37" spans="1:113" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>5184925389</v>
       </c>
@@ -15053,34 +15264,32 @@
         <v>112</v>
       </c>
       <c r="CB37" s="4"/>
-      <c r="CC37" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC37" s="4"/>
       <c r="CD37" s="2">
         <v>0</v>
       </c>
       <c r="CE37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF37" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG37" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH37" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="CH37" s="4" t="s">
+      <c r="CI37" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="CI37" s="2" t="s">
+      <c r="CJ37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK37" s="4"/>
-      <c r="CL37" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL37" s="4"/>
       <c r="CM37" s="2">
         <v>0</v>
       </c>
@@ -15094,10 +15303,10 @@
         <v>0</v>
       </c>
       <c r="CQ37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS37" s="2">
         <v>0</v>
@@ -15126,29 +15335,32 @@
       <c r="DA37" s="2">
         <v>0</v>
       </c>
-      <c r="DB37" s="2" t="s">
-        <v>112</v>
+      <c r="DB37" s="2">
+        <v>0</v>
       </c>
       <c r="DC37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD37" s="2" t="s">
+      <c r="DE37" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF37" s="2">
-        <v>0</v>
+      <c r="DF37" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG37" s="2">
         <v>0</v>
       </c>
-      <c r="DH37" s="2" t="s">
+      <c r="DH37" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI37" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:112" ht="15.75" customHeight="1">
+    <row r="38" spans="1:113" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>5184919072</v>
       </c>
@@ -15385,36 +15597,36 @@
         <v>167</v>
       </c>
       <c r="CB38" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC38" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC38" s="2">
-        <v>0</v>
-      </c>
       <c r="CD38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF38" s="2">
         <v>0</v>
       </c>
-      <c r="CG38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH38" s="4"/>
-      <c r="CI38" s="2" t="s">
+      <c r="CG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI38" s="4"/>
+      <c r="CJ38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ38" s="2" t="s">
+      <c r="CK38" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="CK38" s="4" t="s">
+      <c r="CL38" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL38" s="2">
-        <v>0</v>
-      </c>
       <c r="CM38" s="2">
         <v>0</v>
       </c>
@@ -15460,29 +15672,32 @@
       <c r="DA38" s="2">
         <v>0</v>
       </c>
-      <c r="DB38" s="2" t="s">
-        <v>112</v>
+      <c r="DB38" s="2">
+        <v>0</v>
       </c>
       <c r="DC38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD38" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="DD38" s="2" t="s">
+      <c r="DE38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF38" s="2">
-        <v>0</v>
+      <c r="DF38" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG38" s="2">
         <v>0</v>
       </c>
-      <c r="DH38" s="2" t="s">
+      <c r="DH38" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI38" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:112" ht="15.75" customHeight="1">
+    <row r="39" spans="1:113" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>5184915338</v>
       </c>
@@ -15717,9 +15932,7 @@
         <v>112</v>
       </c>
       <c r="CB39" s="4"/>
-      <c r="CC39" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC39" s="4"/>
       <c r="CD39" s="2">
         <v>0</v>
       </c>
@@ -15729,22 +15942,22 @@
       <c r="CF39" s="2">
         <v>0</v>
       </c>
-      <c r="CG39" s="2" t="s">
+      <c r="CG39" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH39" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="CH39" s="4" t="s">
+      <c r="CI39" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="CI39" s="2" t="s">
+      <c r="CJ39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK39" s="4"/>
-      <c r="CL39" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL39" s="4"/>
       <c r="CM39" s="2">
         <v>0</v>
       </c>
@@ -15770,10 +15983,10 @@
         <v>0</v>
       </c>
       <c r="CU39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW39" s="2">
         <v>0</v>
@@ -15790,29 +16003,32 @@
       <c r="DA39" s="2">
         <v>0</v>
       </c>
-      <c r="DB39" s="2" t="s">
-        <v>112</v>
+      <c r="DB39" s="2">
+        <v>0</v>
       </c>
       <c r="DC39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD39" s="2" t="s">
+      <c r="DE39" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF39" s="2">
-        <v>0</v>
+      <c r="DF39" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG39" s="2">
         <v>0</v>
       </c>
-      <c r="DH39" s="2" t="s">
+      <c r="DH39" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI39" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:112" ht="15.75" customHeight="1">
+    <row r="40" spans="1:113" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>5184910055</v>
       </c>
@@ -16049,8 +16265,8 @@
       <c r="CB40" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="CC40" s="2">
-        <v>0</v>
+      <c r="CC40" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="CD40" s="2">
         <v>0</v>
@@ -16061,30 +16277,30 @@
       <c r="CF40" s="2">
         <v>0</v>
       </c>
-      <c r="CG40" s="2" t="s">
+      <c r="CG40" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH40" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="CH40" s="4" t="s">
+      <c r="CI40" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="CI40" s="2" t="s">
+      <c r="CJ40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK40" s="4"/>
-      <c r="CL40" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL40" s="4"/>
       <c r="CM40" s="2">
         <v>0</v>
       </c>
       <c r="CN40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP40" s="2">
         <v>0</v>
@@ -16122,29 +16338,32 @@
       <c r="DA40" s="2">
         <v>0</v>
       </c>
-      <c r="DB40" s="2" t="s">
-        <v>112</v>
+      <c r="DB40" s="2">
+        <v>0</v>
       </c>
       <c r="DC40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD40" s="2" t="s">
+      <c r="DE40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF40" s="2">
-        <v>0</v>
+      <c r="DF40" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG40" s="2">
         <v>0</v>
       </c>
-      <c r="DH40" s="2" t="s">
+      <c r="DH40" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI40" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:112" ht="15.75" customHeight="1">
+    <row r="41" spans="1:113" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>5184904498</v>
       </c>
@@ -16379,9 +16598,7 @@
         <v>112</v>
       </c>
       <c r="CB41" s="4"/>
-      <c r="CC41" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC41" s="4"/>
       <c r="CD41" s="2">
         <v>0</v>
       </c>
@@ -16391,30 +16608,30 @@
       <c r="CF41" s="2">
         <v>0</v>
       </c>
-      <c r="CG41" s="2" t="s">
+      <c r="CG41" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH41" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="CH41" s="4" t="s">
+      <c r="CI41" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="CI41" s="2" t="s">
+      <c r="CJ41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK41" s="4"/>
-      <c r="CL41" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL41" s="4"/>
       <c r="CM41" s="2">
         <v>0</v>
       </c>
       <c r="CN41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP41" s="2">
         <v>0</v>
@@ -16452,18 +16669,18 @@
       <c r="DA41" s="2">
         <v>0</v>
       </c>
-      <c r="DB41" s="2" t="s">
-        <v>112</v>
+      <c r="DB41" s="2">
+        <v>0</v>
       </c>
       <c r="DC41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD41" s="2" t="s">
+      <c r="DE41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE41" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF41" s="2" t="s">
         <v>112</v>
       </c>
@@ -16471,10 +16688,13 @@
         <v>112</v>
       </c>
       <c r="DH41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI41" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:112" ht="15.75" customHeight="1">
+    <row r="42" spans="1:113" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>5184898799</v>
       </c>
@@ -16707,11 +16927,11 @@
         <v>141</v>
       </c>
       <c r="CB42" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC42" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC42" s="2">
-        <v>0</v>
-      </c>
       <c r="CD42" s="2">
         <v>0</v>
       </c>
@@ -16721,22 +16941,22 @@
       <c r="CF42" s="2">
         <v>0</v>
       </c>
-      <c r="CG42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH42" s="4"/>
-      <c r="CI42" s="2" t="s">
+      <c r="CG42" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI42" s="4"/>
+      <c r="CJ42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ42" s="2" t="s">
+      <c r="CK42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="CK42" s="4" t="s">
+      <c r="CL42" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL42" s="2">
-        <v>0</v>
-      </c>
       <c r="CM42" s="2">
         <v>0</v>
       </c>
@@ -16750,10 +16970,10 @@
         <v>0</v>
       </c>
       <c r="CQ42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS42" s="2">
         <v>0</v>
@@ -16782,29 +17002,32 @@
       <c r="DA42" s="2">
         <v>0</v>
       </c>
-      <c r="DB42" s="2" t="s">
-        <v>112</v>
+      <c r="DB42" s="2">
+        <v>0</v>
       </c>
       <c r="DC42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD42" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="DD42" s="2" t="s">
+      <c r="DE42" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF42" s="2">
-        <v>0</v>
+      <c r="DF42" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG42" s="2">
         <v>0</v>
       </c>
-      <c r="DH42" s="2" t="s">
+      <c r="DH42" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI42" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:112" ht="15.75" customHeight="1">
+    <row r="43" spans="1:113" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>5184893681</v>
       </c>
@@ -17041,36 +17264,36 @@
         <v>396</v>
       </c>
       <c r="CB43" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC43" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="CC43" s="2">
-        <v>0</v>
-      </c>
       <c r="CD43" s="2">
         <v>0</v>
       </c>
       <c r="CE43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF43" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH43" s="4"/>
-      <c r="CI43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG43" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI43" s="4"/>
+      <c r="CJ43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ43" s="2" t="s">
+      <c r="CK43" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="CK43" s="4" t="s">
+      <c r="CL43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL43" s="2">
-        <v>0</v>
-      </c>
       <c r="CM43" s="2">
         <v>0</v>
       </c>
@@ -17116,18 +17339,18 @@
       <c r="DA43" s="2">
         <v>0</v>
       </c>
-      <c r="DB43" s="2" t="s">
+      <c r="DB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC43" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="DC43" s="2" t="s">
+      <c r="DD43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD43" s="2" t="s">
+      <c r="DE43" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE43" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF43" s="2" t="s">
         <v>112</v>
       </c>
@@ -17135,10 +17358,13 @@
         <v>112</v>
       </c>
       <c r="DH43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI43" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:112" ht="15.75" customHeight="1">
+    <row r="44" spans="1:113" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>5184888963</v>
       </c>
@@ -17373,34 +17599,32 @@
         <v>112</v>
       </c>
       <c r="CB44" s="4"/>
-      <c r="CC44" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC44" s="4"/>
       <c r="CD44" s="2">
         <v>0</v>
       </c>
       <c r="CE44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF44" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG44" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH44" s="4"/>
-      <c r="CI44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG44" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI44" s="4"/>
+      <c r="CJ44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ44" s="2" t="s">
+      <c r="CK44" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CK44" s="4" t="s">
+      <c r="CL44" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL44" s="2">
-        <v>0</v>
-      </c>
       <c r="CM44" s="2">
         <v>0</v>
       </c>
@@ -17446,18 +17670,18 @@
       <c r="DA44" s="2">
         <v>0</v>
       </c>
-      <c r="DB44" s="2" t="s">
+      <c r="DB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC44" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="DC44" s="2" t="s">
+      <c r="DD44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD44" s="2" t="s">
+      <c r="DE44" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE44" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF44" s="2" t="s">
         <v>112</v>
       </c>
@@ -17465,10 +17689,13 @@
         <v>112</v>
       </c>
       <c r="DH44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI44" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:112" ht="15.75" customHeight="1">
+    <row r="45" spans="1:113" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>5184882893</v>
       </c>
@@ -17703,34 +17930,32 @@
         <v>112</v>
       </c>
       <c r="CB45" s="4"/>
-      <c r="CC45" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC45" s="4"/>
       <c r="CD45" s="2">
         <v>0</v>
       </c>
       <c r="CE45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF45" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH45" s="4"/>
-      <c r="CI45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG45" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI45" s="4"/>
+      <c r="CJ45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ45" s="2" t="s">
+      <c r="CK45" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="CK45" s="4" t="s">
+      <c r="CL45" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL45" s="2">
-        <v>0</v>
-      </c>
       <c r="CM45" s="2">
         <v>0</v>
       </c>
@@ -17776,29 +18001,32 @@
       <c r="DA45" s="2">
         <v>0</v>
       </c>
-      <c r="DB45" s="2" t="s">
+      <c r="DB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC45" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="DC45" s="2" t="s">
+      <c r="DD45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD45" s="2" t="s">
+      <c r="DE45" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF45" s="2">
-        <v>0</v>
+      <c r="DF45" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG45" s="2">
         <v>0</v>
       </c>
-      <c r="DH45" s="2" t="s">
+      <c r="DH45" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI45" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:112" ht="15.75" customHeight="1">
+    <row r="46" spans="1:113" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>5184877546</v>
       </c>
@@ -18031,9 +18259,7 @@
         <v>415</v>
       </c>
       <c r="CB46" s="4"/>
-      <c r="CC46" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC46" s="4"/>
       <c r="CD46" s="2">
         <v>0</v>
       </c>
@@ -18043,30 +18269,30 @@
       <c r="CF46" s="2">
         <v>0</v>
       </c>
-      <c r="CG46" s="2" t="s">
+      <c r="CG46" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH46" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="CH46" s="4" t="s">
+      <c r="CI46" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="CI46" s="2" t="s">
+      <c r="CJ46" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK46" s="4"/>
-      <c r="CL46" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL46" s="4"/>
       <c r="CM46" s="2">
         <v>0</v>
       </c>
       <c r="CN46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP46" s="2">
         <v>0</v>
@@ -18104,18 +18330,18 @@
       <c r="DA46" s="2">
         <v>0</v>
       </c>
-      <c r="DB46" s="2" t="s">
-        <v>112</v>
+      <c r="DB46" s="2">
+        <v>0</v>
       </c>
       <c r="DC46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD46" s="2" t="s">
+      <c r="DE46" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE46" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF46" s="2" t="s">
         <v>112</v>
       </c>
@@ -18123,10 +18349,13 @@
         <v>112</v>
       </c>
       <c r="DH46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI46" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:112" ht="15.75" customHeight="1">
+    <row r="47" spans="1:113" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>5184318303</v>
       </c>
@@ -18363,34 +18592,34 @@
         <v>167</v>
       </c>
       <c r="CB47" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC47" s="2">
-        <v>0</v>
-      </c>
       <c r="CD47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF47" s="2">
         <v>0</v>
       </c>
-      <c r="CG47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH47" s="4"/>
-      <c r="CI47" s="2" t="s">
+      <c r="CG47" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI47" s="4"/>
+      <c r="CJ47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK47" s="4"/>
-      <c r="CL47" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL47" s="4"/>
       <c r="CM47" s="2">
         <v>0</v>
       </c>
@@ -18416,10 +18645,10 @@
         <v>0</v>
       </c>
       <c r="CU47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW47" s="2">
         <v>0</v>
@@ -18436,29 +18665,32 @@
       <c r="DA47" s="2">
         <v>0</v>
       </c>
-      <c r="DB47" s="2" t="s">
-        <v>112</v>
+      <c r="DB47" s="2">
+        <v>0</v>
       </c>
       <c r="DC47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD47" s="2" t="s">
+      <c r="DE47" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF47" s="2">
-        <v>0</v>
+      <c r="DF47" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG47" s="2">
         <v>0</v>
       </c>
-      <c r="DH47" s="2" t="s">
+      <c r="DH47" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI47" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:112" ht="15.75" customHeight="1">
+    <row r="48" spans="1:113" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>5184315284</v>
       </c>
@@ -18691,9 +18923,7 @@
         <v>112</v>
       </c>
       <c r="CB48" s="4"/>
-      <c r="CC48" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC48" s="4"/>
       <c r="CD48" s="2">
         <v>0</v>
       </c>
@@ -18703,20 +18933,20 @@
       <c r="CF48" s="2">
         <v>0</v>
       </c>
-      <c r="CG48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH48" s="4"/>
-      <c r="CI48" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="CG48" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI48" s="4"/>
       <c r="CJ48" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK48" s="4"/>
-      <c r="CL48" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL48" s="4"/>
       <c r="CM48" s="2">
         <v>0</v>
       </c>
@@ -18762,18 +18992,18 @@
       <c r="DA48" s="2">
         <v>0</v>
       </c>
-      <c r="DB48" s="2" t="s">
-        <v>112</v>
+      <c r="DB48" s="2">
+        <v>0</v>
       </c>
       <c r="DC48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD48" s="2" t="s">
+      <c r="DE48" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE48" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF48" s="2" t="s">
         <v>112</v>
       </c>
@@ -18781,10 +19011,13 @@
         <v>112</v>
       </c>
       <c r="DH48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI48" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:112" ht="15.75" customHeight="1">
+    <row r="49" spans="1:113" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>5184311630</v>
       </c>
@@ -19019,36 +19252,36 @@
         <v>432</v>
       </c>
       <c r="CB49" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC49" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC49" s="2">
-        <v>0</v>
-      </c>
       <c r="CD49" s="2">
         <v>0</v>
       </c>
       <c r="CE49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF49" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG49" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH49" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="CH49" s="4" t="s">
+      <c r="CI49" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CI49" s="2" t="s">
+      <c r="CJ49" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK49" s="4"/>
-      <c r="CL49" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL49" s="4"/>
       <c r="CM49" s="2">
         <v>0</v>
       </c>
@@ -19074,10 +19307,10 @@
         <v>0</v>
       </c>
       <c r="CU49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW49" s="2">
         <v>0</v>
@@ -19094,18 +19327,18 @@
       <c r="DA49" s="2">
         <v>0</v>
       </c>
-      <c r="DB49" s="2" t="s">
-        <v>112</v>
+      <c r="DB49" s="2">
+        <v>0</v>
       </c>
       <c r="DC49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD49" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD49" s="2" t="s">
+      <c r="DE49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE49" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF49" s="2" t="s">
         <v>112</v>
       </c>
@@ -19113,10 +19346,13 @@
         <v>112</v>
       </c>
       <c r="DH49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI49" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:112" ht="15.75" customHeight="1">
+    <row r="50" spans="1:113" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>5184308773</v>
       </c>
@@ -19351,11 +19587,11 @@
         <v>438</v>
       </c>
       <c r="CB50" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC50" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC50" s="2">
-        <v>0</v>
-      </c>
       <c r="CD50" s="2">
         <v>0</v>
       </c>
@@ -19365,30 +19601,30 @@
       <c r="CF50" s="2">
         <v>0</v>
       </c>
-      <c r="CG50" s="2" t="s">
+      <c r="CG50" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH50" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="CH50" s="4" t="s">
+      <c r="CI50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CI50" s="2" t="s">
+      <c r="CJ50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK50" s="4"/>
-      <c r="CL50" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL50" s="4"/>
       <c r="CM50" s="2">
         <v>0</v>
       </c>
       <c r="CN50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP50" s="2">
         <v>0</v>
@@ -19426,29 +19662,32 @@
       <c r="DA50" s="2">
         <v>0</v>
       </c>
-      <c r="DB50" s="2" t="s">
-        <v>112</v>
+      <c r="DB50" s="2">
+        <v>0</v>
       </c>
       <c r="DC50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD50" s="2" t="s">
+      <c r="DE50" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF50" s="2">
-        <v>0</v>
+      <c r="DF50" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG50" s="2">
         <v>0</v>
       </c>
-      <c r="DH50" s="2" t="s">
+      <c r="DH50" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI50" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:112" ht="15.75" customHeight="1">
+    <row r="51" spans="1:113" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>5184288871</v>
       </c>
@@ -19681,42 +19920,42 @@
         <v>444</v>
       </c>
       <c r="CB51" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC51" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="CC51" s="2">
-        <v>0</v>
-      </c>
       <c r="CD51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF51" s="2">
         <v>0</v>
       </c>
-      <c r="CG51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH51" s="4"/>
-      <c r="CI51" s="2" t="s">
+      <c r="CG51" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI51" s="4"/>
+      <c r="CJ51" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK51" s="4"/>
-      <c r="CL51" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL51" s="4"/>
       <c r="CM51" s="2">
         <v>0</v>
       </c>
       <c r="CN51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP51" s="2">
         <v>0</v>
@@ -19754,18 +19993,18 @@
       <c r="DA51" s="2">
         <v>0</v>
       </c>
-      <c r="DB51" s="2" t="s">
-        <v>112</v>
+      <c r="DB51" s="2">
+        <v>0</v>
       </c>
       <c r="DC51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD51" s="2" t="s">
+      <c r="DE51" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="DE51" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF51" s="2" t="s">
         <v>112</v>
       </c>
@@ -19773,10 +20012,13 @@
         <v>112</v>
       </c>
       <c r="DH51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI51" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:112" ht="15.75" customHeight="1">
+    <row r="52" spans="1:113" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>5184285768</v>
       </c>
@@ -20013,8 +20255,8 @@
       <c r="CB52" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="CC52" s="2">
-        <v>0</v>
+      <c r="CC52" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="CD52" s="2">
         <v>0</v>
@@ -20025,18 +20267,18 @@
       <c r="CF52" s="2">
         <v>0</v>
       </c>
-      <c r="CG52" s="2"/>
-      <c r="CH52" s="4"/>
-      <c r="CI52" s="2" t="s">
+      <c r="CG52" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH52" s="2"/>
+      <c r="CI52" s="4"/>
+      <c r="CJ52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK52" s="4"/>
-      <c r="CL52" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL52" s="4"/>
       <c r="CM52" s="2">
         <v>0</v>
       </c>
@@ -20077,23 +20319,23 @@
         <v>0</v>
       </c>
       <c r="CZ52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA52" s="2">
-        <v>0</v>
-      </c>
-      <c r="DB52" s="2" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="DB52" s="2">
+        <v>0</v>
       </c>
       <c r="DC52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD52" s="2" t="s">
+      <c r="DE52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE52" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF52" s="2" t="s">
         <v>112</v>
       </c>
@@ -20101,10 +20343,13 @@
         <v>112</v>
       </c>
       <c r="DH52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI52" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:112" ht="15.75" customHeight="1">
+    <row r="53" spans="1:113" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>5184282242</v>
       </c>
@@ -20337,34 +20582,34 @@
         <v>438</v>
       </c>
       <c r="CB53" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC53" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="CC53" s="2">
-        <v>0</v>
-      </c>
       <c r="CD53" s="2">
         <v>0</v>
       </c>
       <c r="CE53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG53" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH53" s="4"/>
-      <c r="CI53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG53" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI53" s="4"/>
+      <c r="CJ53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ53" s="2" t="s">
+      <c r="CK53" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="CK53" s="4"/>
-      <c r="CL53" s="2">
-        <v>0</v>
-      </c>
+      <c r="CL53" s="4"/>
       <c r="CM53" s="2">
         <v>0</v>
       </c>
@@ -20410,29 +20655,32 @@
       <c r="DA53" s="2">
         <v>0</v>
       </c>
-      <c r="DB53" s="2" t="s">
-        <v>112</v>
+      <c r="DB53" s="2">
+        <v>0</v>
       </c>
       <c r="DC53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DD53" s="2" t="s">
+      <c r="DE53" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE53" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF53" s="2">
-        <v>0</v>
+      <c r="DF53" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG53" s="2">
         <v>0</v>
       </c>
-      <c r="DH53" s="2" t="s">
+      <c r="DH53" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI53" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:112" ht="15.75" customHeight="1">
+    <row r="54" spans="1:113" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>5184278532</v>
       </c>
@@ -20665,9 +20913,7 @@
         <v>112</v>
       </c>
       <c r="CB54" s="4"/>
-      <c r="CC54" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC54" s="4"/>
       <c r="CD54" s="2">
         <v>0</v>
       </c>
@@ -20677,26 +20923,26 @@
       <c r="CF54" s="2">
         <v>0</v>
       </c>
-      <c r="CG54" s="2"/>
-      <c r="CH54" s="4"/>
-      <c r="CI54" s="2" t="s">
+      <c r="CG54" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH54" s="2"/>
+      <c r="CI54" s="4"/>
+      <c r="CJ54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK54" s="4"/>
-      <c r="CL54" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL54" s="4"/>
       <c r="CM54" s="2">
         <v>0</v>
       </c>
       <c r="CN54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP54" s="2">
         <v>0</v>
@@ -20734,29 +20980,32 @@
       <c r="DA54" s="2">
         <v>0</v>
       </c>
-      <c r="DB54" s="2" t="s">
-        <v>112</v>
+      <c r="DB54" s="2">
+        <v>0</v>
       </c>
       <c r="DC54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD54" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD54" s="2" t="s">
+      <c r="DE54" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF54" s="2">
-        <v>0</v>
+      <c r="DF54" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG54" s="2">
         <v>0</v>
       </c>
-      <c r="DH54" s="2" t="s">
+      <c r="DH54" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI54" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:112" ht="15.75" customHeight="1">
+    <row r="55" spans="1:113" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>5184275607</v>
       </c>
@@ -20989,11 +21238,11 @@
         <v>141</v>
       </c>
       <c r="CB55" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC55" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC55" s="2">
-        <v>0</v>
-      </c>
       <c r="CD55" s="2">
         <v>0</v>
       </c>
@@ -21003,24 +21252,24 @@
       <c r="CF55" s="2">
         <v>0</v>
       </c>
-      <c r="CG55" s="2" t="s">
+      <c r="CG55" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH55" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="CH55" s="4" t="s">
+      <c r="CI55" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="CI55" s="2" t="s">
+      <c r="CJ55" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ55" s="2" t="s">
+      <c r="CK55" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="CK55" s="4" t="s">
+      <c r="CL55" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL55" s="2">
-        <v>0</v>
-      </c>
       <c r="CM55" s="2">
         <v>0</v>
       </c>
@@ -21066,29 +21315,32 @@
       <c r="DA55" s="2">
         <v>0</v>
       </c>
-      <c r="DB55" s="2" t="s">
+      <c r="DB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC55" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="DC55" s="2" t="s">
+      <c r="DD55" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD55" s="2" t="s">
+      <c r="DE55" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE55" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF55" s="2">
-        <v>0</v>
+      <c r="DF55" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG55" s="2">
         <v>0</v>
       </c>
-      <c r="DH55" s="2" t="s">
+      <c r="DH55" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI55" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:112" ht="15.75" customHeight="1">
+    <row r="56" spans="1:113" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>5184271637</v>
       </c>
@@ -21325,9 +21577,7 @@
         <v>112</v>
       </c>
       <c r="CB56" s="4"/>
-      <c r="CC56" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC56" s="4"/>
       <c r="CD56" s="2">
         <v>0</v>
       </c>
@@ -21337,22 +21587,22 @@
       <c r="CF56" s="2">
         <v>0</v>
       </c>
-      <c r="CG56" s="2" t="s">
+      <c r="CG56" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH56" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="CH56" s="4" t="s">
+      <c r="CI56" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="CI56" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="CJ56" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK56" s="4"/>
-      <c r="CL56" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL56" s="4"/>
       <c r="CM56" s="2">
         <v>0</v>
       </c>
@@ -21398,29 +21648,32 @@
       <c r="DA56" s="2">
         <v>0</v>
       </c>
-      <c r="DB56" s="2" t="s">
-        <v>112</v>
+      <c r="DB56" s="2">
+        <v>0</v>
       </c>
       <c r="DC56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD56" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="DD56" s="2" t="s">
+      <c r="DE56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF56" s="2">
-        <v>0</v>
+      <c r="DF56" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG56" s="2">
         <v>0</v>
       </c>
-      <c r="DH56" s="2" t="s">
+      <c r="DH56" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI56" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:112" ht="15.75" customHeight="1">
+    <row r="57" spans="1:113" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>5184108980</v>
       </c>
@@ -21655,11 +21908,11 @@
         <v>481</v>
       </c>
       <c r="CB57" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC57" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC57" s="2">
-        <v>0</v>
-      </c>
       <c r="CD57" s="2">
         <v>0</v>
       </c>
@@ -21669,22 +21922,22 @@
       <c r="CF57" s="2">
         <v>0</v>
       </c>
-      <c r="CG57" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH57" s="4"/>
-      <c r="CI57" s="2" t="s">
+      <c r="CG57" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI57" s="4"/>
+      <c r="CJ57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ57" s="2" t="s">
+      <c r="CK57" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="CK57" s="4" t="s">
+      <c r="CL57" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL57" s="2">
-        <v>0</v>
-      </c>
       <c r="CM57" s="2">
         <v>0</v>
       </c>
@@ -21730,18 +21983,18 @@
       <c r="DA57" s="2">
         <v>0</v>
       </c>
-      <c r="DB57" s="2" t="s">
-        <v>112</v>
+      <c r="DB57" s="2">
+        <v>0</v>
       </c>
       <c r="DC57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="DD57" s="2" t="s">
+      <c r="DE57" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE57" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF57" s="2" t="s">
         <v>112</v>
       </c>
@@ -21749,10 +22002,13 @@
         <v>112</v>
       </c>
       <c r="DH57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI57" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:112" ht="15.75" customHeight="1">
+    <row r="58" spans="1:113" ht="15.75" customHeight="1">
       <c r="A58" s="2">
         <v>5184105809</v>
       </c>
@@ -21987,11 +22243,11 @@
         <v>194</v>
       </c>
       <c r="CB58" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC58" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC58" s="2">
-        <v>0</v>
-      </c>
       <c r="CD58" s="2">
         <v>0</v>
       </c>
@@ -22001,28 +22257,28 @@
       <c r="CF58" s="2">
         <v>0</v>
       </c>
-      <c r="CG58" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH58" s="4"/>
-      <c r="CI58" s="2" t="s">
+      <c r="CG58" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI58" s="4"/>
+      <c r="CJ58" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ58" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK58" s="4"/>
-      <c r="CL58" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL58" s="4"/>
       <c r="CM58" s="2">
         <v>0</v>
       </c>
       <c r="CN58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP58" s="2">
         <v>0</v>
@@ -22060,29 +22316,32 @@
       <c r="DA58" s="2">
         <v>0</v>
       </c>
-      <c r="DB58" s="2" t="s">
-        <v>112</v>
+      <c r="DB58" s="2">
+        <v>0</v>
       </c>
       <c r="DC58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD58" s="2" t="s">
+      <c r="DE58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="DE58" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF58" s="2">
-        <v>0</v>
+      <c r="DF58" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG58" s="2">
         <v>0</v>
       </c>
-      <c r="DH58" s="2" t="s">
+      <c r="DH58" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI58" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:112" ht="15.75" customHeight="1">
+    <row r="59" spans="1:113" ht="15.75" customHeight="1">
       <c r="A59" s="2">
         <v>5184102950</v>
       </c>
@@ -22315,11 +22574,11 @@
         <v>492</v>
       </c>
       <c r="CB59" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC59" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC59" s="2">
-        <v>0</v>
-      </c>
       <c r="CD59" s="2">
         <v>0</v>
       </c>
@@ -22329,28 +22588,28 @@
       <c r="CF59" s="2">
         <v>0</v>
       </c>
-      <c r="CG59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH59" s="4"/>
-      <c r="CI59" s="2" t="s">
+      <c r="CG59" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI59" s="4"/>
+      <c r="CJ59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK59" s="4"/>
-      <c r="CL59" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL59" s="4"/>
       <c r="CM59" s="2">
         <v>0</v>
       </c>
       <c r="CN59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP59" s="2">
         <v>0</v>
@@ -22388,18 +22647,18 @@
       <c r="DA59" s="2">
         <v>0</v>
       </c>
-      <c r="DB59" s="2" t="s">
-        <v>112</v>
+      <c r="DB59" s="2">
+        <v>0</v>
       </c>
       <c r="DC59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD59" s="2" t="s">
+      <c r="DE59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE59" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF59" s="2" t="s">
         <v>112</v>
       </c>
@@ -22407,10 +22666,13 @@
         <v>112</v>
       </c>
       <c r="DH59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI59" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:112" ht="15.75" customHeight="1">
+    <row r="60" spans="1:113" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>5184099809</v>
       </c>
@@ -22647,42 +22909,42 @@
         <v>481</v>
       </c>
       <c r="CB60" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC60" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC60" s="2">
-        <v>0</v>
-      </c>
       <c r="CD60" s="2">
         <v>0</v>
       </c>
       <c r="CE60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF60" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH60" s="4"/>
-      <c r="CI60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG60" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI60" s="4"/>
+      <c r="CJ60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK60" s="4"/>
-      <c r="CL60" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL60" s="4"/>
       <c r="CM60" s="2">
         <v>0</v>
       </c>
       <c r="CN60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP60" s="2">
         <v>0</v>
@@ -22720,29 +22982,32 @@
       <c r="DA60" s="2">
         <v>0</v>
       </c>
-      <c r="DB60" s="2" t="s">
-        <v>112</v>
+      <c r="DB60" s="2">
+        <v>0</v>
       </c>
       <c r="DC60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD60" s="2" t="s">
+      <c r="DE60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF60" s="2">
-        <v>0</v>
+      <c r="DF60" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG60" s="2">
         <v>0</v>
       </c>
-      <c r="DH60" s="2" t="s">
+      <c r="DH60" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI60" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:112" ht="15.75" customHeight="1">
+    <row r="61" spans="1:113" ht="15.75" customHeight="1">
       <c r="A61" s="2">
         <v>5184096580</v>
       </c>
@@ -22977,36 +23242,36 @@
         <v>504</v>
       </c>
       <c r="CB61" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC61" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC61" s="2">
-        <v>0</v>
-      </c>
       <c r="CD61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE61" s="2">
         <v>1</v>
       </c>
       <c r="CF61" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG61" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH61" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="CH61" s="4" t="s">
+      <c r="CI61" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="CI61" s="2" t="s">
+      <c r="CJ61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK61" s="4"/>
-      <c r="CL61" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL61" s="4"/>
       <c r="CM61" s="2">
         <v>0</v>
       </c>
@@ -23026,10 +23291,10 @@
         <v>0</v>
       </c>
       <c r="CS61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU61" s="2">
         <v>0</v>
@@ -23052,29 +23317,32 @@
       <c r="DA61" s="2">
         <v>0</v>
       </c>
-      <c r="DB61" s="2" t="s">
-        <v>112</v>
+      <c r="DB61" s="2">
+        <v>0</v>
       </c>
       <c r="DC61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD61" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD61" s="2" t="s">
+      <c r="DE61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF61" s="2">
-        <v>0</v>
+      <c r="DF61" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG61" s="2">
         <v>0</v>
       </c>
-      <c r="DH61" s="2" t="s">
+      <c r="DH61" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI61" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:112" ht="15.75" customHeight="1">
+    <row r="62" spans="1:113" ht="15.75" customHeight="1">
       <c r="A62" s="2">
         <v>5184092184</v>
       </c>
@@ -23311,40 +23579,38 @@
         <v>112</v>
       </c>
       <c r="CB62" s="4"/>
-      <c r="CC62" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC62" s="4"/>
       <c r="CD62" s="2">
         <v>0</v>
       </c>
       <c r="CE62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF62" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH62" s="4"/>
-      <c r="CI62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG62" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI62" s="4"/>
+      <c r="CJ62" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK62" s="4"/>
-      <c r="CL62" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL62" s="4"/>
       <c r="CM62" s="2">
         <v>0</v>
       </c>
       <c r="CN62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO62" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP62" s="2">
         <v>0</v>
@@ -23382,29 +23648,32 @@
       <c r="DA62" s="2">
         <v>0</v>
       </c>
-      <c r="DB62" s="2" t="s">
-        <v>112</v>
+      <c r="DB62" s="2">
+        <v>0</v>
       </c>
       <c r="DC62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD62" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD62" s="2" t="s">
+      <c r="DE62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF62" s="2">
-        <v>0</v>
+      <c r="DF62" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG62" s="2">
         <v>0</v>
       </c>
-      <c r="DH62" s="2" t="s">
+      <c r="DH62" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI62" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:112" ht="15.75" customHeight="1">
+    <row r="63" spans="1:113" ht="15.75" customHeight="1">
       <c r="A63" s="2">
         <v>5184089190</v>
       </c>
@@ -23639,9 +23908,7 @@
         <v>112</v>
       </c>
       <c r="CB63" s="4"/>
-      <c r="CC63" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC63" s="4"/>
       <c r="CD63" s="2">
         <v>0</v>
       </c>
@@ -23651,30 +23918,30 @@
       <c r="CF63" s="2">
         <v>0</v>
       </c>
-      <c r="CG63" s="2" t="s">
+      <c r="CG63" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH63" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="CH63" s="4" t="s">
+      <c r="CI63" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="CI63" s="2" t="s">
+      <c r="CJ63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ63" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK63" s="4"/>
-      <c r="CL63" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL63" s="4"/>
       <c r="CM63" s="2">
         <v>0</v>
       </c>
       <c r="CN63" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP63" s="2">
         <v>0</v>
@@ -23712,18 +23979,18 @@
       <c r="DA63" s="2">
         <v>0</v>
       </c>
-      <c r="DB63" s="2" t="s">
-        <v>112</v>
+      <c r="DB63" s="2">
+        <v>0</v>
       </c>
       <c r="DC63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD63" s="2" t="s">
+      <c r="DE63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE63" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF63" s="2" t="s">
         <v>112</v>
       </c>
@@ -23731,10 +23998,13 @@
         <v>112</v>
       </c>
       <c r="DH63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI63" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:112" ht="15.75" customHeight="1">
+    <row r="64" spans="1:113" ht="15.75" customHeight="1">
       <c r="A64" s="2">
         <v>5184087529</v>
       </c>
@@ -23967,9 +24237,7 @@
         <v>112</v>
       </c>
       <c r="CB64" s="4"/>
-      <c r="CC64" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC64" s="4"/>
       <c r="CD64" s="2">
         <v>0</v>
       </c>
@@ -23979,20 +24247,20 @@
       <c r="CF64" s="2">
         <v>0</v>
       </c>
-      <c r="CG64" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH64" s="4"/>
-      <c r="CI64" s="2" t="s">
+      <c r="CG64" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI64" s="4"/>
+      <c r="CJ64" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ64" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK64" s="4"/>
-      <c r="CL64" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL64" s="4"/>
       <c r="CM64" s="2">
         <v>0</v>
       </c>
@@ -24015,10 +24283,10 @@
         <v>0</v>
       </c>
       <c r="CT64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV64" s="2">
         <v>0</v>
@@ -24038,29 +24306,32 @@
       <c r="DA64" s="2">
         <v>0</v>
       </c>
-      <c r="DB64" s="2" t="s">
-        <v>112</v>
+      <c r="DB64" s="2">
+        <v>0</v>
       </c>
       <c r="DC64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD64" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD64" s="2" t="s">
+      <c r="DE64" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE64" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF64" s="2">
-        <v>0</v>
+      <c r="DF64" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG64" s="2">
         <v>0</v>
       </c>
-      <c r="DH64" s="2" t="s">
+      <c r="DH64" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI64" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:112" ht="15.75" customHeight="1">
+    <row r="65" spans="1:113" ht="15.75" customHeight="1">
       <c r="A65" s="2">
         <v>5184083495</v>
       </c>
@@ -24293,36 +24564,36 @@
         <v>141</v>
       </c>
       <c r="CB65" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC65" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC65" s="2">
-        <v>0</v>
-      </c>
       <c r="CD65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF65" s="2">
         <v>0</v>
       </c>
-      <c r="CG65" s="2" t="s">
+      <c r="CG65" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH65" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="CH65" s="4" t="s">
+      <c r="CI65" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CI65" s="2" t="s">
+      <c r="CJ65" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK65" s="4"/>
-      <c r="CL65" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL65" s="4"/>
       <c r="CM65" s="2">
         <v>0</v>
       </c>
@@ -24336,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="CQ65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS65" s="2">
         <v>0</v>
@@ -24368,29 +24639,32 @@
       <c r="DA65" s="2">
         <v>0</v>
       </c>
-      <c r="DB65" s="2" t="s">
-        <v>112</v>
+      <c r="DB65" s="2">
+        <v>0</v>
       </c>
       <c r="DC65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD65" s="2" t="s">
+      <c r="DE65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF65" s="2">
-        <v>0</v>
+      <c r="DF65" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG65" s="2">
         <v>0</v>
       </c>
-      <c r="DH65" s="2" t="s">
+      <c r="DH65" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI65" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:112" ht="15.75" customHeight="1">
+    <row r="66" spans="1:113" ht="15.75" customHeight="1">
       <c r="A66" s="2">
         <v>5184080156</v>
       </c>
@@ -24629,11 +24903,11 @@
         <v>481</v>
       </c>
       <c r="CB66" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC66" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC66" s="2">
-        <v>0</v>
-      </c>
       <c r="CD66" s="2">
         <v>0</v>
       </c>
@@ -24643,30 +24917,30 @@
       <c r="CF66" s="2">
         <v>0</v>
       </c>
-      <c r="CG66" s="2" t="s">
+      <c r="CG66" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH66" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="CH66" s="4" t="s">
+      <c r="CI66" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CI66" s="2" t="s">
+      <c r="CJ66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ66" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK66" s="4"/>
-      <c r="CL66" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL66" s="4"/>
       <c r="CM66" s="2">
         <v>0</v>
       </c>
       <c r="CN66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP66" s="2">
         <v>0</v>
@@ -24704,18 +24978,18 @@
       <c r="DA66" s="2">
         <v>0</v>
       </c>
-      <c r="DB66" s="2" t="s">
-        <v>112</v>
+      <c r="DB66" s="2">
+        <v>0</v>
       </c>
       <c r="DC66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD66" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD66" s="2" t="s">
+      <c r="DE66" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE66" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF66" s="2" t="s">
         <v>112</v>
       </c>
@@ -24723,10 +24997,13 @@
         <v>112</v>
       </c>
       <c r="DH66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI66" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:112" ht="15.75" customHeight="1">
+    <row r="67" spans="1:113" ht="15.75" customHeight="1">
       <c r="A67" s="2">
         <v>5183546048</v>
       </c>
@@ -24959,11 +25236,11 @@
         <v>141</v>
       </c>
       <c r="CB67" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC67" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC67" s="2">
-        <v>0</v>
-      </c>
       <c r="CD67" s="2">
         <v>0</v>
       </c>
@@ -24973,28 +25250,28 @@
       <c r="CF67" s="2">
         <v>0</v>
       </c>
-      <c r="CG67" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH67" s="4"/>
-      <c r="CI67" s="2" t="s">
+      <c r="CG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI67" s="4"/>
+      <c r="CJ67" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ67" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK67" s="4"/>
-      <c r="CL67" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL67" s="4"/>
       <c r="CM67" s="2">
         <v>0</v>
       </c>
       <c r="CN67" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP67" s="2">
         <v>0</v>
@@ -25032,18 +25309,18 @@
       <c r="DA67" s="2">
         <v>0</v>
       </c>
-      <c r="DB67" s="2" t="s">
-        <v>112</v>
+      <c r="DB67" s="2">
+        <v>0</v>
       </c>
       <c r="DC67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD67" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD67" s="2" t="s">
+      <c r="DE67" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE67" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF67" s="2" t="s">
         <v>112</v>
       </c>
@@ -25051,10 +25328,13 @@
         <v>112</v>
       </c>
       <c r="DH67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI67" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:112" ht="15.75" customHeight="1">
+    <row r="68" spans="1:113" ht="15.75" customHeight="1">
       <c r="A68" s="2">
         <v>5183533715</v>
       </c>
@@ -25291,44 +25571,44 @@
       <c r="CB68" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="CC68" s="2">
-        <v>0</v>
+      <c r="CC68" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="CD68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF68" s="2">
         <v>0</v>
       </c>
-      <c r="CG68" s="2" t="s">
+      <c r="CG68" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH68" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="CH68" s="4" t="s">
+      <c r="CI68" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="CI68" s="2" t="s">
+      <c r="CJ68" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ68" s="2" t="s">
+      <c r="CK68" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="CK68" s="4" t="s">
+      <c r="CL68" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL68" s="2">
-        <v>0</v>
-      </c>
       <c r="CM68" s="2">
         <v>0</v>
       </c>
       <c r="CN68" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP68" s="2">
         <v>0</v>
@@ -25366,29 +25646,32 @@
       <c r="DA68" s="2">
         <v>0</v>
       </c>
-      <c r="DB68" s="2" t="s">
+      <c r="DB68" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC68" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="DC68" s="2" t="s">
+      <c r="DD68" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="DD68" s="2" t="s">
+      <c r="DE68" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF68" s="2">
-        <v>0</v>
+      <c r="DF68" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG68" s="2">
         <v>0</v>
       </c>
-      <c r="DH68" s="2" t="s">
+      <c r="DH68" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI68" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:112" ht="15.75" customHeight="1">
+    <row r="69" spans="1:113" ht="15.75" customHeight="1">
       <c r="A69" s="2">
         <v>5178165771</v>
       </c>
@@ -25625,11 +25908,11 @@
         <v>548</v>
       </c>
       <c r="CB69" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC69" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC69" s="2">
-        <v>0</v>
-      </c>
       <c r="CD69" s="2">
         <v>0</v>
       </c>
@@ -25639,30 +25922,30 @@
       <c r="CF69" s="2">
         <v>0</v>
       </c>
-      <c r="CG69" s="2" t="s">
+      <c r="CG69" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH69" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="CH69" s="4" t="s">
+      <c r="CI69" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="CI69" s="2" t="s">
+      <c r="CJ69" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ69" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK69" s="4"/>
-      <c r="CL69" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL69" s="4"/>
       <c r="CM69" s="2">
         <v>0</v>
       </c>
       <c r="CN69" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP69" s="2">
         <v>0</v>
@@ -25700,18 +25983,18 @@
       <c r="DA69" s="2">
         <v>0</v>
       </c>
-      <c r="DB69" s="2" t="s">
-        <v>112</v>
+      <c r="DB69" s="2">
+        <v>0</v>
       </c>
       <c r="DC69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD69" s="2" t="s">
+      <c r="DE69" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE69" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF69" s="2" t="s">
         <v>112</v>
       </c>
@@ -25719,10 +26002,13 @@
         <v>112</v>
       </c>
       <c r="DH69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI69" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:112" ht="15.75" customHeight="1">
+    <row r="70" spans="1:113" ht="15.75" customHeight="1">
       <c r="A70" s="2">
         <v>5178030032</v>
       </c>
@@ -25955,11 +26241,11 @@
         <v>481</v>
       </c>
       <c r="CB70" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC70" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC70" s="2">
-        <v>0</v>
-      </c>
       <c r="CD70" s="2">
         <v>0</v>
       </c>
@@ -25969,20 +26255,20 @@
       <c r="CF70" s="2">
         <v>0</v>
       </c>
-      <c r="CG70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH70" s="4"/>
-      <c r="CI70" s="2" t="s">
+      <c r="CG70" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI70" s="4"/>
+      <c r="CJ70" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="CJ70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK70" s="4"/>
-      <c r="CL70" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL70" s="4"/>
       <c r="CM70" s="2">
         <v>0</v>
       </c>
@@ -26028,18 +26314,18 @@
       <c r="DA70" s="2">
         <v>0</v>
       </c>
-      <c r="DB70" s="2" t="s">
-        <v>112</v>
+      <c r="DB70" s="2">
+        <v>0</v>
       </c>
       <c r="DC70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD70" s="2" t="s">
+      <c r="DE70" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE70" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF70" s="2" t="s">
         <v>112</v>
       </c>
@@ -26047,10 +26333,13 @@
         <v>112</v>
       </c>
       <c r="DH70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI70" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:112" ht="15.75" customHeight="1">
+    <row r="71" spans="1:113" ht="15.75" customHeight="1">
       <c r="A71" s="2">
         <v>5177302776</v>
       </c>
@@ -26285,40 +26574,38 @@
         <v>112</v>
       </c>
       <c r="CB71" s="4"/>
-      <c r="CC71" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC71" s="4"/>
       <c r="CD71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF71" s="2">
         <v>0</v>
       </c>
-      <c r="CG71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH71" s="4"/>
-      <c r="CI71" s="2" t="s">
+      <c r="CG71" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI71" s="4"/>
+      <c r="CJ71" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK71" s="4"/>
-      <c r="CL71" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL71" s="4"/>
       <c r="CM71" s="2">
         <v>0</v>
       </c>
       <c r="CN71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP71" s="2">
         <v>0</v>
@@ -26356,18 +26643,18 @@
       <c r="DA71" s="2">
         <v>0</v>
       </c>
-      <c r="DB71" s="2" t="s">
-        <v>112</v>
+      <c r="DB71" s="2">
+        <v>0</v>
       </c>
       <c r="DC71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD71" s="2" t="s">
+      <c r="DE71" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE71" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF71" s="2" t="s">
         <v>112</v>
       </c>
@@ -26375,10 +26662,13 @@
         <v>112</v>
       </c>
       <c r="DH71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI71" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:112" ht="15.75" customHeight="1">
+    <row r="72" spans="1:113" ht="15.75" customHeight="1">
       <c r="A72" s="2">
         <v>5177285940</v>
       </c>
@@ -26611,11 +26901,9 @@
         <v>112</v>
       </c>
       <c r="CB72" s="4"/>
-      <c r="CC72" s="2">
-        <v>1</v>
-      </c>
+      <c r="CC72" s="4"/>
       <c r="CD72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE72" s="2">
         <v>0</v>
@@ -26623,22 +26911,22 @@
       <c r="CF72" s="2">
         <v>0</v>
       </c>
-      <c r="CG72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH72" s="4"/>
-      <c r="CI72" s="2" t="s">
+      <c r="CG72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI72" s="4"/>
+      <c r="CJ72" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ72" s="2" t="s">
+      <c r="CK72" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="CK72" s="4" t="s">
+      <c r="CL72" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL72" s="2">
-        <v>0</v>
-      </c>
       <c r="CM72" s="2">
         <v>0</v>
       </c>
@@ -26684,29 +26972,32 @@
       <c r="DA72" s="2">
         <v>0</v>
       </c>
-      <c r="DB72" s="2" t="s">
+      <c r="DB72" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC72" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="DC72" s="2" t="s">
+      <c r="DD72" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="DD72" s="2" t="s">
+      <c r="DE72" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF72" s="2">
-        <v>0</v>
+      <c r="DF72" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG72" s="2">
         <v>0</v>
       </c>
-      <c r="DH72" s="2" t="s">
+      <c r="DH72" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI72" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:112" ht="15.75" customHeight="1">
+    <row r="73" spans="1:113" ht="15.75" customHeight="1">
       <c r="A73" s="2">
         <v>5173145280</v>
       </c>
@@ -26939,9 +27230,7 @@
         <v>112</v>
       </c>
       <c r="CB73" s="4"/>
-      <c r="CC73" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC73" s="4"/>
       <c r="CD73" s="2">
         <v>0</v>
       </c>
@@ -26951,20 +27240,20 @@
       <c r="CF73" s="2">
         <v>0</v>
       </c>
-      <c r="CG73" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH73" s="4"/>
-      <c r="CI73" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="CG73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI73" s="4"/>
       <c r="CJ73" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK73" s="4"/>
-      <c r="CL73" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL73" s="4"/>
       <c r="CM73" s="2">
         <v>0</v>
       </c>
@@ -27010,8 +27299,8 @@
       <c r="DA73" s="2">
         <v>0</v>
       </c>
-      <c r="DB73" s="2" t="s">
-        <v>112</v>
+      <c r="DB73" s="2">
+        <v>0</v>
       </c>
       <c r="DC73" s="2" t="s">
         <v>112</v>
@@ -27029,10 +27318,13 @@
         <v>112</v>
       </c>
       <c r="DH73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI73" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:112" ht="15.75" customHeight="1">
+    <row r="74" spans="1:113" ht="15.75" customHeight="1">
       <c r="A74" s="2">
         <v>5172444835</v>
       </c>
@@ -27265,11 +27557,11 @@
         <v>569</v>
       </c>
       <c r="CB74" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC74" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC74" s="2">
-        <v>0</v>
-      </c>
       <c r="CD74" s="2">
         <v>0</v>
       </c>
@@ -27279,28 +27571,28 @@
       <c r="CF74" s="2">
         <v>0</v>
       </c>
-      <c r="CG74" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH74" s="4"/>
-      <c r="CI74" s="2" t="s">
+      <c r="CG74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI74" s="4"/>
+      <c r="CJ74" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="CJ74" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK74" s="4"/>
-      <c r="CL74" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL74" s="4"/>
       <c r="CM74" s="2">
         <v>0</v>
       </c>
       <c r="CN74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP74" s="2">
         <v>0</v>
@@ -27338,18 +27630,18 @@
       <c r="DA74" s="2">
         <v>0</v>
       </c>
-      <c r="DB74" s="2" t="s">
-        <v>112</v>
+      <c r="DB74" s="2">
+        <v>0</v>
       </c>
       <c r="DC74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD74" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD74" s="2" t="s">
+      <c r="DE74" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE74" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF74" s="2" t="s">
         <v>112</v>
       </c>
@@ -27357,10 +27649,13 @@
         <v>112</v>
       </c>
       <c r="DH74" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI74" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:112" ht="15.75" customHeight="1">
+    <row r="75" spans="1:113" ht="15.75" customHeight="1">
       <c r="A75" s="2">
         <v>5172312249</v>
       </c>
@@ -27593,11 +27888,11 @@
         <v>574</v>
       </c>
       <c r="CB75" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC75" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="CC75" s="2">
-        <v>0</v>
-      </c>
       <c r="CD75" s="2">
         <v>0</v>
       </c>
@@ -27607,22 +27902,22 @@
       <c r="CF75" s="2">
         <v>0</v>
       </c>
-      <c r="CG75" s="2" t="s">
+      <c r="CG75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH75" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="CH75" s="4" t="s">
+      <c r="CI75" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="CI75" s="2" t="s">
+      <c r="CJ75" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="CJ75" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK75" s="4"/>
-      <c r="CL75" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL75" s="4"/>
       <c r="CM75" s="2">
         <v>0</v>
       </c>
@@ -27645,10 +27940,10 @@
         <v>0</v>
       </c>
       <c r="CT75" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV75" s="2">
         <v>0</v>
@@ -27668,18 +27963,18 @@
       <c r="DA75" s="2">
         <v>0</v>
       </c>
-      <c r="DB75" s="2" t="s">
-        <v>112</v>
+      <c r="DB75" s="2">
+        <v>0</v>
       </c>
       <c r="DC75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD75" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD75" s="2" t="s">
+      <c r="DE75" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE75" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF75" s="2" t="s">
         <v>112</v>
       </c>
@@ -27687,10 +27982,13 @@
         <v>112</v>
       </c>
       <c r="DH75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI75" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:112" ht="15.75" customHeight="1">
+    <row r="76" spans="1:113" ht="15.75" customHeight="1">
       <c r="A76" s="2">
         <v>5172214552</v>
       </c>
@@ -27923,9 +28221,7 @@
         <v>112</v>
       </c>
       <c r="CB76" s="4"/>
-      <c r="CC76" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC76" s="4"/>
       <c r="CD76" s="2">
         <v>0</v>
       </c>
@@ -27935,20 +28231,20 @@
       <c r="CF76" s="2">
         <v>0</v>
       </c>
-      <c r="CG76" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH76" s="4"/>
-      <c r="CI76" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="CG76" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI76" s="4"/>
       <c r="CJ76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK76" s="4"/>
-      <c r="CL76" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL76" s="4"/>
       <c r="CM76" s="2">
         <v>0</v>
       </c>
@@ -27994,8 +28290,8 @@
       <c r="DA76" s="2">
         <v>0</v>
       </c>
-      <c r="DB76" s="2" t="s">
-        <v>112</v>
+      <c r="DB76" s="2">
+        <v>0</v>
       </c>
       <c r="DC76" s="2" t="s">
         <v>112</v>
@@ -28013,10 +28309,13 @@
         <v>112</v>
       </c>
       <c r="DH76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI76" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:112" ht="15.75" customHeight="1">
+    <row r="77" spans="1:113" ht="15.75" customHeight="1">
       <c r="A77" s="2">
         <v>5172186674</v>
       </c>
@@ -28243,34 +28542,34 @@
         <v>438</v>
       </c>
       <c r="CB77" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC77" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC77" s="2">
-        <v>0</v>
-      </c>
       <c r="CD77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF77" s="2">
         <v>0</v>
       </c>
-      <c r="CG77" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH77" s="4"/>
-      <c r="CI77" s="2" t="s">
+      <c r="CG77" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI77" s="4"/>
+      <c r="CJ77" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="CJ77" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK77" s="4"/>
-      <c r="CL77" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL77" s="4"/>
       <c r="CM77" s="2">
         <v>0</v>
       </c>
@@ -28290,10 +28589,10 @@
         <v>0</v>
       </c>
       <c r="CS77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU77" s="2">
         <v>0</v>
@@ -28316,29 +28615,32 @@
       <c r="DA77" s="2">
         <v>0</v>
       </c>
-      <c r="DB77" s="2" t="s">
-        <v>112</v>
+      <c r="DB77" s="2">
+        <v>0</v>
       </c>
       <c r="DC77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD77" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD77" s="2" t="s">
+      <c r="DE77" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE77" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF77" s="2">
-        <v>0</v>
+      <c r="DF77" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG77" s="2">
         <v>0</v>
       </c>
-      <c r="DH77" s="2" t="s">
+      <c r="DH77" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI77" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:112" ht="15.75" customHeight="1">
+    <row r="78" spans="1:113" ht="15.75" customHeight="1">
       <c r="A78" s="2">
         <v>5172173113</v>
       </c>
@@ -28573,11 +28875,11 @@
         <v>212</v>
       </c>
       <c r="CB78" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC78" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="CC78" s="2">
-        <v>0</v>
-      </c>
       <c r="CD78" s="2">
         <v>0</v>
       </c>
@@ -28587,30 +28889,30 @@
       <c r="CF78" s="2">
         <v>0</v>
       </c>
-      <c r="CG78" s="2" t="s">
+      <c r="CG78" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH78" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="CH78" s="4" t="s">
+      <c r="CI78" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="CI78" s="2" t="s">
+      <c r="CJ78" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="CJ78" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK78" s="4"/>
-      <c r="CL78" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL78" s="4"/>
       <c r="CM78" s="2">
         <v>0</v>
       </c>
       <c r="CN78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP78" s="2">
         <v>0</v>
@@ -28648,18 +28950,18 @@
       <c r="DA78" s="2">
         <v>0</v>
       </c>
-      <c r="DB78" s="2" t="s">
-        <v>112</v>
+      <c r="DB78" s="2">
+        <v>0</v>
       </c>
       <c r="DC78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD78" s="2" t="s">
+      <c r="DE78" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE78" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF78" s="2" t="s">
         <v>112</v>
       </c>
@@ -28667,10 +28969,13 @@
         <v>112</v>
       </c>
       <c r="DH78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI78" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:112" ht="15.75" customHeight="1">
+    <row r="79" spans="1:113" ht="15.75" customHeight="1">
       <c r="A79" s="2">
         <v>5170332928</v>
       </c>
@@ -28907,38 +29212,38 @@
         <v>481</v>
       </c>
       <c r="CB79" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC79" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC79" s="2">
-        <v>0</v>
-      </c>
       <c r="CD79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF79" s="2">
         <v>0</v>
       </c>
-      <c r="CG79" s="2" t="s">
+      <c r="CG79" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH79" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="CH79" s="4" t="s">
+      <c r="CI79" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="CI79" s="2" t="s">
+      <c r="CJ79" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ79" s="2" t="s">
+      <c r="CK79" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="CK79" s="4" t="s">
+      <c r="CL79" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL79" s="2">
-        <v>0</v>
-      </c>
       <c r="CM79" s="2">
         <v>0</v>
       </c>
@@ -28984,18 +29289,18 @@
       <c r="DA79" s="2">
         <v>0</v>
       </c>
-      <c r="DB79" s="2" t="s">
+      <c r="DB79" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC79" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="DC79" s="2" t="s">
+      <c r="DD79" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD79" s="2" t="s">
+      <c r="DE79" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE79" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF79" s="2" t="s">
         <v>112</v>
       </c>
@@ -29003,10 +29308,13 @@
         <v>112</v>
       </c>
       <c r="DH79" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI79" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:112" ht="15.75" customHeight="1">
+    <row r="80" spans="1:113" ht="15.75" customHeight="1">
       <c r="A80" s="2">
         <v>5169999503</v>
       </c>
@@ -29239,46 +29547,46 @@
         <v>597</v>
       </c>
       <c r="CB80" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC80" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="CC80" s="2">
-        <v>0</v>
-      </c>
       <c r="CD80" s="2">
         <v>0</v>
       </c>
       <c r="CE80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF80" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG80" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH80" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="CH80" s="4" t="s">
+      <c r="CI80" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CI80" s="2" t="s">
+      <c r="CJ80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ80" s="2" t="s">
+      <c r="CK80" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="CK80" s="4" t="s">
+      <c r="CL80" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL80" s="2">
-        <v>0</v>
-      </c>
       <c r="CM80" s="2">
         <v>0</v>
       </c>
       <c r="CN80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP80" s="2">
         <v>0</v>
@@ -29316,18 +29624,18 @@
       <c r="DA80" s="2">
         <v>0</v>
       </c>
-      <c r="DB80" s="2" t="s">
-        <v>112</v>
+      <c r="DB80" s="2">
+        <v>0</v>
       </c>
       <c r="DC80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD80" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD80" s="2" t="s">
+      <c r="DE80" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE80" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF80" s="2" t="s">
         <v>112</v>
       </c>
@@ -29335,10 +29643,13 @@
         <v>112</v>
       </c>
       <c r="DH80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI80" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:112" ht="15.75" customHeight="1">
+    <row r="81" spans="1:113" ht="15.75" customHeight="1">
       <c r="A81" s="2">
         <v>5169726686</v>
       </c>
@@ -29573,42 +29884,42 @@
         <v>605</v>
       </c>
       <c r="CB81" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC81" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC81" s="2">
-        <v>0</v>
-      </c>
       <c r="CD81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE81" s="2">
         <v>1</v>
       </c>
       <c r="CF81" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH81" s="4"/>
-      <c r="CI81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG81" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI81" s="4"/>
+      <c r="CJ81" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK81" s="4"/>
-      <c r="CL81" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL81" s="4"/>
       <c r="CM81" s="2">
         <v>0</v>
       </c>
       <c r="CN81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP81" s="2">
         <v>0</v>
@@ -29646,18 +29957,18 @@
       <c r="DA81" s="2">
         <v>0</v>
       </c>
-      <c r="DB81" s="2" t="s">
-        <v>112</v>
+      <c r="DB81" s="2">
+        <v>0</v>
       </c>
       <c r="DC81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD81" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="DD81" s="2" t="s">
+      <c r="DE81" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE81" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF81" s="2" t="s">
         <v>112</v>
       </c>
@@ -29665,10 +29976,13 @@
         <v>112</v>
       </c>
       <c r="DH81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI81" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:112" ht="15.75" customHeight="1">
+    <row r="82" spans="1:113" ht="15.75" customHeight="1">
       <c r="A82" s="2">
         <v>5169537924</v>
       </c>
@@ -29901,9 +30215,7 @@
         <v>112</v>
       </c>
       <c r="CB82" s="4"/>
-      <c r="CC82" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC82" s="4"/>
       <c r="CD82" s="2">
         <v>0</v>
       </c>
@@ -29913,20 +30225,20 @@
       <c r="CF82" s="2">
         <v>0</v>
       </c>
-      <c r="CG82" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH82" s="4"/>
-      <c r="CI82" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="CG82" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI82" s="4"/>
       <c r="CJ82" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK82" s="4"/>
-      <c r="CL82" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL82" s="4"/>
       <c r="CM82" s="2">
         <v>0</v>
       </c>
@@ -29972,8 +30284,8 @@
       <c r="DA82" s="2">
         <v>0</v>
       </c>
-      <c r="DB82" s="2" t="s">
-        <v>112</v>
+      <c r="DB82" s="2">
+        <v>0</v>
       </c>
       <c r="DC82" s="2" t="s">
         <v>112</v>
@@ -29991,10 +30303,13 @@
         <v>112</v>
       </c>
       <c r="DH82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI82" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:112" ht="15.75" customHeight="1">
+    <row r="83" spans="1:113" ht="15.75" customHeight="1">
       <c r="A83" s="2">
         <v>5168516520</v>
       </c>
@@ -30231,11 +30546,11 @@
         <v>613</v>
       </c>
       <c r="CB83" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC83" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CC83" s="2">
-        <v>0</v>
-      </c>
       <c r="CD83" s="2">
         <v>0</v>
       </c>
@@ -30245,39 +30560,39 @@
       <c r="CF83" s="2">
         <v>0</v>
       </c>
-      <c r="CG83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH83" s="4"/>
-      <c r="CI83" s="2" t="s">
+      <c r="CG83" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI83" s="4"/>
+      <c r="CJ83" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ83" s="2" t="s">
+      <c r="CK83" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="CK83" s="4" t="s">
+      <c r="CL83" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL83" s="2">
-        <v>0</v>
-      </c>
       <c r="CM83" s="2">
         <v>0</v>
       </c>
       <c r="CN83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP83" s="2">
         <v>0</v>
       </c>
       <c r="CQ83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS83" s="2">
         <v>0</v>
@@ -30306,18 +30621,18 @@
       <c r="DA83" s="2">
         <v>0</v>
       </c>
-      <c r="DB83" s="2" t="s">
-        <v>112</v>
+      <c r="DB83" s="2">
+        <v>0</v>
       </c>
       <c r="DC83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD83" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="DD83" s="2" t="s">
+      <c r="DE83" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE83" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF83" s="2" t="s">
         <v>112</v>
       </c>
@@ -30325,10 +30640,13 @@
         <v>112</v>
       </c>
       <c r="DH83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI83" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:112" ht="15.75" customHeight="1">
+    <row r="84" spans="1:113" ht="15.75" customHeight="1">
       <c r="A84" s="2">
         <v>5166942045</v>
       </c>
@@ -30565,9 +30883,7 @@
         <v>112</v>
       </c>
       <c r="CB84" s="4"/>
-      <c r="CC84" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC84" s="4"/>
       <c r="CD84" s="2">
         <v>0</v>
       </c>
@@ -30577,24 +30893,24 @@
       <c r="CF84" s="2">
         <v>0</v>
       </c>
-      <c r="CG84" s="2" t="s">
+      <c r="CG84" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH84" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="CH84" s="4" t="s">
+      <c r="CI84" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CI84" s="2" t="s">
+      <c r="CJ84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ84" s="2" t="s">
+      <c r="CK84" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="CK84" s="4" t="s">
+      <c r="CL84" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL84" s="2">
-        <v>0</v>
-      </c>
       <c r="CM84" s="2">
         <v>0</v>
       </c>
@@ -30640,29 +30956,32 @@
       <c r="DA84" s="2">
         <v>0</v>
       </c>
-      <c r="DB84" s="2" t="s">
+      <c r="DB84" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC84" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="DC84" s="2" t="s">
+      <c r="DD84" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD84" s="2" t="s">
+      <c r="DE84" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE84" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF84" s="2">
-        <v>0</v>
+      <c r="DF84" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG84" s="2">
         <v>0</v>
       </c>
-      <c r="DH84" s="2" t="s">
+      <c r="DH84" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI84" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:112" ht="15.75" customHeight="1">
+    <row r="85" spans="1:113" ht="15.75" customHeight="1">
       <c r="A85" s="2">
         <v>5166203266</v>
       </c>
@@ -30895,9 +31214,7 @@
         <v>112</v>
       </c>
       <c r="CB85" s="4"/>
-      <c r="CC85" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC85" s="4"/>
       <c r="CD85" s="2">
         <v>0</v>
       </c>
@@ -30907,20 +31224,20 @@
       <c r="CF85" s="2">
         <v>0</v>
       </c>
-      <c r="CG85" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH85" s="4"/>
-      <c r="CI85" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="CG85" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI85" s="4"/>
       <c r="CJ85" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK85" s="4"/>
-      <c r="CL85" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL85" s="4"/>
       <c r="CM85" s="2">
         <v>0</v>
       </c>
@@ -30966,8 +31283,8 @@
       <c r="DA85" s="2">
         <v>0</v>
       </c>
-      <c r="DB85" s="2" t="s">
-        <v>112</v>
+      <c r="DB85" s="2">
+        <v>0</v>
       </c>
       <c r="DC85" s="2" t="s">
         <v>112</v>
@@ -30985,10 +31302,13 @@
         <v>112</v>
       </c>
       <c r="DH85" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI85" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:112" ht="15.75" customHeight="1">
+    <row r="86" spans="1:113" ht="15.75" customHeight="1">
       <c r="A86" s="2">
         <v>5165826594</v>
       </c>
@@ -31223,9 +31543,7 @@
         <v>112</v>
       </c>
       <c r="CB86" s="4"/>
-      <c r="CC86" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC86" s="4"/>
       <c r="CD86" s="2">
         <v>0</v>
       </c>
@@ -31235,30 +31553,30 @@
       <c r="CF86" s="2">
         <v>0</v>
       </c>
-      <c r="CG86" s="2" t="s">
+      <c r="CG86" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH86" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="CH86" s="4" t="s">
+      <c r="CI86" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="CI86" s="2" t="s">
+      <c r="CJ86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK86" s="4"/>
-      <c r="CL86" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL86" s="4"/>
       <c r="CM86" s="2">
         <v>0</v>
       </c>
       <c r="CN86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP86" s="2">
         <v>0</v>
@@ -31296,29 +31614,32 @@
       <c r="DA86" s="2">
         <v>0</v>
       </c>
-      <c r="DB86" s="2" t="s">
-        <v>112</v>
+      <c r="DB86" s="2">
+        <v>0</v>
       </c>
       <c r="DC86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD86" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD86" s="2" t="s">
+      <c r="DE86" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF86" s="2">
-        <v>0</v>
+      <c r="DF86" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG86" s="2">
         <v>0</v>
       </c>
-      <c r="DH86" s="2" t="s">
+      <c r="DH86" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI86" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:112" ht="15.75" customHeight="1">
+    <row r="87" spans="1:113" ht="15.75" customHeight="1">
       <c r="A87" s="2">
         <v>5165747129</v>
       </c>
@@ -31551,11 +31872,11 @@
         <v>637</v>
       </c>
       <c r="CB87" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC87" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC87" s="2">
-        <v>0</v>
-      </c>
       <c r="CD87" s="2">
         <v>0</v>
       </c>
@@ -31565,26 +31886,26 @@
       <c r="CF87" s="2">
         <v>0</v>
       </c>
-      <c r="CG87" s="2"/>
-      <c r="CH87" s="4"/>
-      <c r="CI87" s="2" t="s">
+      <c r="CG87" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH87" s="2"/>
+      <c r="CI87" s="4"/>
+      <c r="CJ87" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ87" s="2" t="s">
+      <c r="CK87" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="CK87" s="4"/>
-      <c r="CL87" s="2">
-        <v>0</v>
-      </c>
+      <c r="CL87" s="4"/>
       <c r="CM87" s="2">
         <v>0</v>
       </c>
       <c r="CN87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP87" s="2">
         <v>0</v>
@@ -31622,18 +31943,18 @@
       <c r="DA87" s="2">
         <v>0</v>
       </c>
-      <c r="DB87" s="2" t="s">
-        <v>112</v>
+      <c r="DB87" s="2">
+        <v>0</v>
       </c>
       <c r="DC87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD87" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="DD87" s="2" t="s">
+      <c r="DE87" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE87" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF87" s="2" t="s">
         <v>112</v>
       </c>
@@ -31641,10 +31962,13 @@
         <v>112</v>
       </c>
       <c r="DH87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI87" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:112" ht="15.75" customHeight="1">
+    <row r="88" spans="1:113" ht="15.75" customHeight="1">
       <c r="A88" s="2">
         <v>5165634175</v>
       </c>
@@ -31877,36 +32201,36 @@
         <v>481</v>
       </c>
       <c r="CB88" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC88" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC88" s="2">
-        <v>0</v>
-      </c>
       <c r="CD88" s="2">
         <v>0</v>
       </c>
       <c r="CE88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF88" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH88" s="4"/>
-      <c r="CI88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG88" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI88" s="4"/>
+      <c r="CJ88" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ88" s="2" t="s">
+      <c r="CK88" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="CK88" s="4" t="s">
+      <c r="CL88" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL88" s="2">
-        <v>0</v>
-      </c>
       <c r="CM88" s="2">
         <v>0</v>
       </c>
@@ -31952,29 +32276,32 @@
       <c r="DA88" s="2">
         <v>0</v>
       </c>
-      <c r="DB88" s="2" t="s">
+      <c r="DB88" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC88" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="DC88" s="2" t="s">
+      <c r="DD88" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD88" s="2" t="s">
+      <c r="DE88" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF88" s="2">
-        <v>0</v>
+      <c r="DF88" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG88" s="2">
         <v>0</v>
       </c>
-      <c r="DH88" s="2" t="s">
+      <c r="DH88" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI88" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:112" ht="15.75" customHeight="1">
+    <row r="89" spans="1:113" ht="15.75" customHeight="1">
       <c r="A89" s="2">
         <v>5165578183</v>
       </c>
@@ -32207,9 +32534,7 @@
         <v>112</v>
       </c>
       <c r="CB89" s="4"/>
-      <c r="CC89" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC89" s="4"/>
       <c r="CD89" s="2">
         <v>0</v>
       </c>
@@ -32219,30 +32544,30 @@
       <c r="CF89" s="2">
         <v>0</v>
       </c>
-      <c r="CG89" s="2" t="s">
+      <c r="CG89" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH89" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="CH89" s="4" t="s">
+      <c r="CI89" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="CI89" s="2" t="s">
+      <c r="CJ89" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ89" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK89" s="4"/>
-      <c r="CL89" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL89" s="4"/>
       <c r="CM89" s="2">
         <v>0</v>
       </c>
       <c r="CN89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP89" s="2">
         <v>0</v>
@@ -32280,29 +32605,32 @@
       <c r="DA89" s="2">
         <v>0</v>
       </c>
-      <c r="DB89" s="2" t="s">
-        <v>112</v>
+      <c r="DB89" s="2">
+        <v>0</v>
       </c>
       <c r="DC89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD89" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD89" s="2" t="s">
+      <c r="DE89" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE89" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF89" s="2">
-        <v>0</v>
+      <c r="DF89" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG89" s="2">
         <v>0</v>
       </c>
-      <c r="DH89" s="2" t="s">
+      <c r="DH89" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI89" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:112" ht="15.75" customHeight="1">
+    <row r="90" spans="1:113" ht="15.75" customHeight="1">
       <c r="A90" s="2">
         <v>5154043817</v>
       </c>
@@ -32537,38 +32865,38 @@
         <v>653</v>
       </c>
       <c r="CB90" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC90" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC90" s="2">
-        <v>0</v>
-      </c>
       <c r="CD90" s="2">
         <v>0</v>
       </c>
       <c r="CE90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF90" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG90" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH90" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="CH90" s="4" t="s">
+      <c r="CI90" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="CI90" s="2" t="s">
+      <c r="CJ90" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ90" s="2" t="s">
+      <c r="CK90" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="CK90" s="4" t="s">
+      <c r="CL90" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL90" s="2">
-        <v>0</v>
-      </c>
       <c r="CM90" s="2">
         <v>0</v>
       </c>
@@ -32597,10 +32925,10 @@
         <v>0</v>
       </c>
       <c r="CV90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX90" s="2">
         <v>0</v>
@@ -32614,29 +32942,32 @@
       <c r="DA90" s="2">
         <v>0</v>
       </c>
-      <c r="DB90" s="2" t="s">
-        <v>112</v>
+      <c r="DB90" s="2">
+        <v>0</v>
       </c>
       <c r="DC90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD90" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD90" s="2" t="s">
+      <c r="DE90" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE90" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF90" s="2">
-        <v>0</v>
+      <c r="DF90" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG90" s="2">
         <v>0</v>
       </c>
-      <c r="DH90" s="2" t="s">
+      <c r="DH90" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI90" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:112" ht="15.75" customHeight="1">
+    <row r="91" spans="1:113" ht="15.75" customHeight="1">
       <c r="A91" s="2">
         <v>5149915696</v>
       </c>
@@ -32873,8 +33204,8 @@
       <c r="CB91" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="CC91" s="2">
-        <v>0</v>
+      <c r="CC91" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="CD91" s="2">
         <v>0</v>
@@ -32885,20 +33216,20 @@
       <c r="CF91" s="2">
         <v>0</v>
       </c>
-      <c r="CG91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH91" s="4"/>
-      <c r="CI91" s="2" t="s">
+      <c r="CG91" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI91" s="4"/>
+      <c r="CJ91" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ91" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK91" s="4"/>
-      <c r="CL91" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL91" s="4"/>
       <c r="CM91" s="2">
         <v>0</v>
       </c>
@@ -32906,10 +33237,10 @@
         <v>0</v>
       </c>
       <c r="CO91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ91" s="2">
         <v>0</v>
@@ -32944,18 +33275,18 @@
       <c r="DA91" s="2">
         <v>0</v>
       </c>
-      <c r="DB91" s="2" t="s">
-        <v>112</v>
+      <c r="DB91" s="2">
+        <v>0</v>
       </c>
       <c r="DC91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD91" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD91" s="2" t="s">
+      <c r="DE91" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE91" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF91" s="2" t="s">
         <v>112</v>
       </c>
@@ -32963,10 +33294,13 @@
         <v>112</v>
       </c>
       <c r="DH91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI91" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:112" ht="15.75" customHeight="1">
+    <row r="92" spans="1:113" ht="15.75" customHeight="1">
       <c r="A92" s="2">
         <v>5146082282</v>
       </c>
@@ -33199,36 +33533,36 @@
         <v>167</v>
       </c>
       <c r="CB92" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC92" s="2">
-        <v>0</v>
-      </c>
       <c r="CD92" s="2">
         <v>0</v>
       </c>
       <c r="CE92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF92" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH92" s="4"/>
-      <c r="CI92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG92" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI92" s="4"/>
+      <c r="CJ92" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ92" s="2" t="s">
+      <c r="CK92" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="CK92" s="4" t="s">
+      <c r="CL92" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL92" s="2">
-        <v>0</v>
-      </c>
       <c r="CM92" s="2">
         <v>0</v>
       </c>
@@ -33242,10 +33576,10 @@
         <v>0</v>
       </c>
       <c r="CQ92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS92" s="2">
         <v>0</v>
@@ -33274,29 +33608,32 @@
       <c r="DA92" s="2">
         <v>0</v>
       </c>
-      <c r="DB92" s="2" t="s">
-        <v>112</v>
+      <c r="DB92" s="2">
+        <v>0</v>
       </c>
       <c r="DC92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD92" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD92" s="2" t="s">
+      <c r="DE92" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DE92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF92" s="2">
-        <v>0</v>
+      <c r="DF92" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG92" s="2">
         <v>0</v>
       </c>
-      <c r="DH92" s="2" t="s">
+      <c r="DH92" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI92" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:112" ht="15.75" customHeight="1">
+    <row r="93" spans="1:113" ht="15.75" customHeight="1">
       <c r="A93" s="2">
         <v>5145201306</v>
       </c>
@@ -33529,9 +33866,7 @@
         <v>112</v>
       </c>
       <c r="CB93" s="4"/>
-      <c r="CC93" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC93" s="4"/>
       <c r="CD93" s="2">
         <v>0</v>
       </c>
@@ -33541,20 +33876,20 @@
       <c r="CF93" s="2">
         <v>0</v>
       </c>
-      <c r="CG93" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH93" s="4"/>
-      <c r="CI93" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="CG93" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI93" s="4"/>
       <c r="CJ93" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK93" s="4"/>
-      <c r="CL93" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL93" s="4"/>
       <c r="CM93" s="2">
         <v>0</v>
       </c>
@@ -33600,8 +33935,8 @@
       <c r="DA93" s="2">
         <v>0</v>
       </c>
-      <c r="DB93" s="2" t="s">
-        <v>112</v>
+      <c r="DB93" s="2">
+        <v>0</v>
       </c>
       <c r="DC93" s="2" t="s">
         <v>112</v>
@@ -33619,10 +33954,13 @@
         <v>112</v>
       </c>
       <c r="DH93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI93" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:112" ht="15.75" customHeight="1">
+    <row r="94" spans="1:113" ht="15.75" customHeight="1">
       <c r="A94" s="2">
         <v>5144105029</v>
       </c>
@@ -33855,36 +34193,36 @@
         <v>481</v>
       </c>
       <c r="CB94" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="CC94" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="CC94" s="2">
-        <v>1</v>
-      </c>
       <c r="CD94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF94" s="2">
-        <v>0</v>
-      </c>
-      <c r="CG94" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH94" s="4"/>
-      <c r="CI94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG94" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH94" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI94" s="4"/>
+      <c r="CJ94" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="CJ94" s="2" t="s">
+      <c r="CK94" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="CK94" s="4" t="s">
+      <c r="CL94" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CL94" s="2">
-        <v>0</v>
-      </c>
       <c r="CM94" s="2">
         <v>0</v>
       </c>
@@ -33930,29 +34268,32 @@
       <c r="DA94" s="2">
         <v>0</v>
       </c>
-      <c r="DB94" s="2" t="s">
+      <c r="DB94" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC94" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="DC94" s="2" t="s">
+      <c r="DD94" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="DD94" s="2" t="s">
+      <c r="DE94" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE94" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DF94" s="2">
-        <v>0</v>
+      <c r="DF94" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="DG94" s="2">
         <v>0</v>
       </c>
-      <c r="DH94" s="2" t="s">
+      <c r="DH94" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI94" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:112" ht="15.75" customHeight="1">
+    <row r="95" spans="1:113" ht="15.75" customHeight="1">
       <c r="A95" s="2">
         <v>5142314813</v>
       </c>
@@ -34185,9 +34526,7 @@
         <v>112</v>
       </c>
       <c r="CB95" s="4"/>
-      <c r="CC95" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC95" s="4"/>
       <c r="CD95" s="2">
         <v>0</v>
       </c>
@@ -34197,20 +34536,20 @@
       <c r="CF95" s="2">
         <v>0</v>
       </c>
-      <c r="CG95" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH95" s="4"/>
-      <c r="CI95" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="CG95" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI95" s="4"/>
       <c r="CJ95" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK95" s="4"/>
-      <c r="CL95" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL95" s="4"/>
       <c r="CM95" s="2">
         <v>0</v>
       </c>
@@ -34256,8 +34595,8 @@
       <c r="DA95" s="2">
         <v>0</v>
       </c>
-      <c r="DB95" s="2" t="s">
-        <v>112</v>
+      <c r="DB95" s="2">
+        <v>0</v>
       </c>
       <c r="DC95" s="2" t="s">
         <v>112</v>
@@ -34275,10 +34614,13 @@
         <v>112</v>
       </c>
       <c r="DH95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI95" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:112" ht="15.75" customHeight="1">
+    <row r="96" spans="1:113" ht="15.75" customHeight="1">
       <c r="A96" s="2">
         <v>5141591904</v>
       </c>
@@ -34511,9 +34853,7 @@
         <v>112</v>
       </c>
       <c r="CB96" s="4"/>
-      <c r="CC96" s="2">
-        <v>0</v>
-      </c>
+      <c r="CC96" s="4"/>
       <c r="CD96" s="2">
         <v>0</v>
       </c>
@@ -34523,20 +34863,20 @@
       <c r="CF96" s="2">
         <v>0</v>
       </c>
-      <c r="CG96" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CH96" s="4"/>
-      <c r="CI96" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="CG96" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI96" s="4"/>
       <c r="CJ96" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CK96" s="4"/>
-      <c r="CL96" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL96" s="4"/>
       <c r="CM96" s="2">
         <v>0</v>
       </c>
@@ -34582,8 +34922,8 @@
       <c r="DA96" s="2">
         <v>0</v>
       </c>
-      <c r="DB96" s="2" t="s">
-        <v>112</v>
+      <c r="DB96" s="2">
+        <v>0</v>
       </c>
       <c r="DC96" s="2" t="s">
         <v>112</v>
@@ -34601,10 +34941,13 @@
         <v>112</v>
       </c>
       <c r="DH96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI96" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:112" ht="15.75" customHeight="1">
+    <row r="97" spans="1:113" ht="15.75" customHeight="1">
       <c r="A97" s="2">
         <v>5141241857</v>
       </c>
@@ -34837,11 +35180,11 @@
         <v>415</v>
       </c>
       <c r="CB97" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="CC97" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CC97" s="2">
-        <v>0</v>
-      </c>
       <c r="CD97" s="2">
         <v>0</v>
       </c>
@@ -34851,30 +35194,30 @@
       <c r="CF97" s="2">
         <v>0</v>
       </c>
-      <c r="CG97" s="2" t="s">
+      <c r="CG97" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH97" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="CH97" s="4" t="s">
+      <c r="CI97" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="CI97" s="2" t="s">
+      <c r="CJ97" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="CJ97" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="CK97" s="4"/>
-      <c r="CL97" s="2">
-        <v>0</v>
-      </c>
+      <c r="CK97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="CL97" s="4"/>
       <c r="CM97" s="2">
         <v>0</v>
       </c>
       <c r="CN97" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP97" s="2">
         <v>0</v>
@@ -34912,18 +35255,18 @@
       <c r="DA97" s="2">
         <v>0</v>
       </c>
-      <c r="DB97" s="2" t="s">
-        <v>112</v>
+      <c r="DB97" s="2">
+        <v>0</v>
       </c>
       <c r="DC97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD97" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="DD97" s="2" t="s">
+      <c r="DE97" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DE97" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="DF97" s="2" t="s">
         <v>112</v>
       </c>
@@ -34931,28 +35274,34 @@
         <v>112</v>
       </c>
       <c r="DH97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI97" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:112" ht="15.75" customHeight="1">
+    <row r="98" spans="1:113" ht="15.75" customHeight="1">
       <c r="M98" s="7"/>
       <c r="AU98" s="8"/>
       <c r="BC98" s="8"/>
       <c r="BQ98" s="8"/>
       <c r="CB98" s="8"/>
-      <c r="CH98" s="8"/>
-      <c r="CK98" s="8"/>
+      <c r="CC98" s="8"/>
+      <c r="CI98" s="8"/>
+      <c r="CL98" s="8"/>
     </row>
-    <row r="99" spans="1:112" ht="15.75" customHeight="1">
+    <row r="99" spans="1:113" ht="15.75" customHeight="1">
       <c r="M99" s="7"/>
       <c r="AU99" s="8"/>
       <c r="BC99" s="8"/>
       <c r="BQ99" s="8"/>
       <c r="CB99" s="8"/>
-      <c r="CH99" s="8"/>
-      <c r="CK99" s="8"/>
+      <c r="CC99" s="8"/>
+      <c r="CI99" s="8"/>
+      <c r="CL99" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="BZ1:BZ99"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
